--- a/100runs/run007/NotionalETEOutput007.xlsx
+++ b/100runs/run007/NotionalETEOutput007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="23">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,40 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_293.MISSILE_BRAVER_293</t>
+    <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_4.MISSILE_SOMERSAULT_4</t>
+    <t>MISSILE_HIGHWIND_225.MISSILE_HIGHWIND_225</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_382.MISSILE_BRAVER_382</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_42.MISSILE_SOMERSAULT_42</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_486.MISSILE_HELLMASKER_486</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +489,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G2">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H2">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I2">
-        <v>-1523.488567495184</v>
+        <v>1114861.404277167</v>
       </c>
       <c r="J2">
-        <v>1348.647729287501</v>
+        <v>4843222.51789526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984366.359185634</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +524,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G3">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H3">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I3">
-        <v>-1493.410846522969</v>
+        <v>1114891.018274875</v>
       </c>
       <c r="J3">
-        <v>1315.840802287621</v>
+        <v>4843173.866314626</v>
       </c>
       <c r="K3">
-        <v>212.6974372759092</v>
+        <v>3984670.15487552</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +559,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G4">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H4">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I4">
-        <v>-1462.592489342809</v>
+        <v>1114921.361490033</v>
       </c>
       <c r="J4">
-        <v>1283.033875287741</v>
+        <v>4843125.214733992</v>
       </c>
       <c r="K4">
-        <v>414.7888053591904</v>
+        <v>3984958.80191976</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +594,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G5">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H5">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I5">
-        <v>-1431.015258469457</v>
+        <v>1114952.451878948</v>
       </c>
       <c r="J5">
-        <v>1250.226948287861</v>
+        <v>4843076.563153358</v>
       </c>
       <c r="K5">
-        <v>606.2741042498451</v>
+        <v>3985232.300318353</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +629,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G6">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H6">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I6">
-        <v>-1398.660467336368</v>
+        <v>1114984.307840088</v>
       </c>
       <c r="J6">
-        <v>1217.420021287981</v>
+        <v>4843027.911572725</v>
       </c>
       <c r="K6">
-        <v>787.1533339478719</v>
+        <v>3985490.650071298</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +664,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G7">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H7">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I7">
-        <v>-1365.508969237488</v>
+        <v>1115016.948224965</v>
       </c>
       <c r="J7">
-        <v>1184.613094288102</v>
+        <v>4842979.259992091</v>
       </c>
       <c r="K7">
-        <v>957.4264944532725</v>
+        <v>3985733.851178597</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +699,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G8">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H8">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I8">
-        <v>-1331.541145996743</v>
+        <v>1115050.392349289</v>
       </c>
       <c r="J8">
-        <v>1151.806167288222</v>
+        <v>4842930.608411456</v>
       </c>
       <c r="K8">
-        <v>1117.093585766046</v>
+        <v>3985961.903640247</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +734,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G9">
-        <v>-159.9509529269754</v>
+        <v>4841126.443670209</v>
       </c>
       <c r="H9">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I9">
-        <v>-1296.736896358518</v>
+        <v>1115084.660004408</v>
       </c>
       <c r="J9">
-        <v>1118.999240288342</v>
+        <v>4842881.956830822</v>
       </c>
       <c r="K9">
-        <v>1266.154607886192</v>
+        <v>3986174.807456251</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +769,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>260.8873386918917</v>
+        <v>1116578.433573602</v>
       </c>
       <c r="G10">
-        <v>-133.5385482756123</v>
+        <v>4841142.956495834</v>
       </c>
       <c r="H10">
-        <v>525.0727830909861</v>
+        <v>3985227.776817813</v>
       </c>
       <c r="I10">
-        <v>-1261.075624092276</v>
+        <v>1115119.771469008</v>
       </c>
       <c r="J10">
-        <v>1086.192313288462</v>
+        <v>4842833.305250188</v>
       </c>
       <c r="K10">
-        <v>1404.60956081371</v>
+        <v>3986372.562626607</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>202.4790090179476</v>
+        <v>1116529.753012896</v>
       </c>
       <c r="G11">
-        <v>-107.1261436242493</v>
+        <v>4841159.469321458</v>
       </c>
       <c r="H11">
-        <v>646.8861355240301</v>
+        <v>3985427.031197012</v>
       </c>
       <c r="I11">
-        <v>-1224.536225804245</v>
+        <v>1115155.747521122</v>
       </c>
       <c r="J11">
-        <v>1053.385386288582</v>
+        <v>4842784.653669555</v>
       </c>
       <c r="K11">
-        <v>1532.458444548601</v>
+        <v>3986555.169151317</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +839,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>168.1670454126184</v>
+        <v>1116501.155625561</v>
       </c>
       <c r="G12">
-        <v>-80.71373897288628</v>
+        <v>4841175.982147082</v>
       </c>
       <c r="H12">
-        <v>719.4443980045027</v>
+        <v>3985545.717295519</v>
       </c>
       <c r="I12">
-        <v>-1187.097078449002</v>
+        <v>1115192.609450422</v>
       </c>
       <c r="J12">
-        <v>1020.578459288702</v>
+        <v>4842736.00208892</v>
       </c>
       <c r="K12">
-        <v>1649.701259090865</v>
+        <v>3986722.627030379</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +874,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>146.5068167319236</v>
+        <v>1116483.102856666</v>
       </c>
       <c r="G13">
-        <v>-54.30133432152323</v>
+        <v>4841192.494972707</v>
       </c>
       <c r="H13">
-        <v>771.2968841738125</v>
+        <v>3985630.534228434</v>
       </c>
       <c r="I13">
-        <v>-1148.736026533519</v>
+        <v>1115230.379070819</v>
       </c>
       <c r="J13">
-        <v>987.7715322888217</v>
+        <v>4842687.350508287</v>
       </c>
       <c r="K13">
-        <v>1756.338004440503</v>
+        <v>3986874.936263794</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +909,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>131.4010611740371</v>
+        <v>1116470.512928918</v>
       </c>
       <c r="G14">
-        <v>-27.88892967016019</v>
+        <v>4841209.007798331</v>
       </c>
       <c r="H14">
-        <v>811.6743873738644</v>
+        <v>3985696.581128655</v>
       </c>
       <c r="I14">
-        <v>-1109.430369006139</v>
+        <v>1115269.07873337</v>
       </c>
       <c r="J14">
-        <v>954.9646052889418</v>
+        <v>4842638.698927653</v>
       </c>
       <c r="K14">
-        <v>1852.368680597513</v>
+        <v>3987012.096851561</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +944,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>120.1317151620884</v>
+        <v>1116461.120465793</v>
       </c>
       <c r="G15">
-        <v>-1.476525018797173</v>
+        <v>4841225.520623955</v>
       </c>
       <c r="H15">
-        <v>844.7466944593388</v>
+        <v>3985750.678663001</v>
       </c>
       <c r="I15">
-        <v>-1069.156845822689</v>
+        <v>1115308.731339509</v>
       </c>
       <c r="J15">
-        <v>922.1576782890619</v>
+        <v>4842590.047347019</v>
       </c>
       <c r="K15">
-        <v>1937.793287561895</v>
+        <v>3987134.108793682</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +979,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>111.3206602982594</v>
+        <v>1116453.776871248</v>
       </c>
       <c r="G16">
-        <v>24.93587963256587</v>
+        <v>4841242.033449579</v>
       </c>
       <c r="H16">
-        <v>872.7565243993272</v>
+        <v>3985796.495325663</v>
       </c>
       <c r="I16">
-        <v>-1027.891624181809</v>
+        <v>1115349.360354594</v>
       </c>
       <c r="J16">
-        <v>889.3507512891819</v>
+        <v>4842541.395766385</v>
       </c>
       <c r="K16">
-        <v>2012.61182533365</v>
+        <v>3987240.972090155</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1014,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>104.1918753594805</v>
+        <v>1116447.835368557</v>
       </c>
       <c r="G17">
-        <v>51.3482842839289</v>
+        <v>4841258.546275204</v>
       </c>
       <c r="H17">
-        <v>897.0499505219838</v>
+        <v>3985836.232936064</v>
       </c>
       <c r="I17">
-        <v>-985.6102844213291</v>
+        <v>1115390.989821798</v>
       </c>
       <c r="J17">
-        <v>856.5438242893021</v>
+        <v>4842492.744185751</v>
       </c>
       <c r="K17">
-        <v>2076.824293912779</v>
+        <v>3987332.686740981</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1049,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>98.27244373191949</v>
+        <v>1116442.901804246</v>
       </c>
       <c r="G18">
-        <v>77.76068893529192</v>
+        <v>4841275.059100828</v>
       </c>
       <c r="H18">
-        <v>918.4986418639261</v>
+        <v>3985871.317313865</v>
       </c>
       <c r="I18">
-        <v>-942.2878055673673</v>
+        <v>1115433.644376333</v>
       </c>
       <c r="J18">
-        <v>823.736897289422</v>
+        <v>4842444.092605118</v>
       </c>
       <c r="K18">
-        <v>2130.43069329928</v>
+        <v>3987409.25274616</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1084,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>93.2561708094525</v>
+        <v>1116438.720979698</v>
       </c>
       <c r="G19">
-        <v>104.173093586655</v>
+        <v>4841291.571926452</v>
       </c>
       <c r="H19">
-        <v>937.699536711074</v>
+        <v>3985902.724891987</v>
       </c>
       <c r="I19">
-        <v>-897.898550527576</v>
+        <v>1115477.349260032</v>
       </c>
       <c r="J19">
-        <v>790.9299702895421</v>
+        <v>4842395.441024484</v>
       </c>
       <c r="K19">
-        <v>2173.431023493154</v>
+        <v>3987470.670105692</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1119,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>88.93514107617095</v>
+        <v>1116435.119607233</v>
       </c>
       <c r="G20">
-        <v>130.585498238018</v>
+        <v>4841308.084752076</v>
       </c>
       <c r="H20">
-        <v>955.0793960822203</v>
+        <v>3985931.153738418</v>
       </c>
       <c r="I20">
-        <v>-852.4162509197957</v>
+        <v>1115522.130336284</v>
       </c>
       <c r="J20">
-        <v>758.1230432896622</v>
+        <v>4842346.78944385</v>
       </c>
       <c r="K20">
-        <v>2205.825284494401</v>
+        <v>3987516.938819576</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1154,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>85.16265884391548</v>
+        <v>1116431.975422981</v>
       </c>
       <c r="G21">
-        <v>156.997902889381</v>
+        <v>4841324.597577701</v>
       </c>
       <c r="H21">
-        <v>970.9539131480681</v>
+        <v>3985957.120243566</v>
       </c>
       <c r="I21">
-        <v>-805.8139915271225</v>
+        <v>1115568.014105341</v>
       </c>
       <c r="J21">
-        <v>725.3161162897821</v>
+        <v>4842298.137863216</v>
       </c>
       <c r="K21">
-        <v>2227.61347630302</v>
+        <v>3987548.058887813</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1189,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>81.83191358751529</v>
+        <v>1116429.199405459</v>
       </c>
       <c r="G22">
-        <v>183.4103075407441</v>
+        <v>4841341.110403325</v>
       </c>
       <c r="H22">
-        <v>985.5631969011988</v>
+        <v>3985981.017162143</v>
       </c>
       <c r="I22">
-        <v>-758.0641943701969</v>
+        <v>1115615.027719999</v>
       </c>
       <c r="J22">
-        <v>692.5091892899023</v>
+        <v>4842249.486282582</v>
       </c>
       <c r="K22">
-        <v>2238.795598919013</v>
+        <v>3987564.030310403</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1224,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>78.86306404953855</v>
+        <v>1116426.72501078</v>
       </c>
       <c r="G23">
-        <v>209.8227121921071</v>
+        <v>4841357.623228949</v>
       </c>
       <c r="H23">
-        <v>999.094127694432</v>
+        <v>3986003.150180908</v>
       </c>
       <c r="I23">
-        <v>-709.1386023872899</v>
+        <v>1115663.199001667</v>
       </c>
       <c r="J23">
-        <v>659.7022622900223</v>
+        <v>4842200.834701949</v>
       </c>
       <c r="K23">
-        <v>2239.371652342378</v>
+        <v>3987564.853087346</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1259,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>76.1950838722298</v>
+        <v>1116424.501376382</v>
       </c>
       <c r="G24">
-        <v>236.2351168434702</v>
+        <v>4841374.136054575</v>
       </c>
       <c r="H24">
-        <v>1011.695013712837</v>
+        <v>3986023.761892767</v>
       </c>
       <c r="I24">
-        <v>-659.0082627125233</v>
+        <v>1115712.556456828</v>
       </c>
       <c r="J24">
-        <v>626.8953352901423</v>
+        <v>4842152.183121314</v>
       </c>
       <c r="K24">
-        <v>2229.341636573116</v>
+        <v>3987550.527218641</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1294,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>73.78042725234724</v>
+        <v>1116422.488875103</v>
       </c>
       <c r="G25">
-        <v>262.6475214948332</v>
+        <v>4841390.648880198</v>
       </c>
       <c r="H25">
-        <v>1023.485526155946</v>
+        <v>3986043.048048106</v>
       </c>
       <c r="I25">
-        <v>-607.6435095423319</v>
+        <v>1115763.129293915</v>
       </c>
       <c r="J25">
-        <v>594.0884082902625</v>
+        <v>4842103.531540681</v>
       </c>
       <c r="K25">
-        <v>2208.705551611227</v>
+        <v>3987521.052704289</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1329,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>71.58143153165636</v>
+        <v>1116420.656116911</v>
       </c>
       <c r="G26">
-        <v>289.0599261461962</v>
+        <v>4841407.161705823</v>
       </c>
       <c r="H26">
-        <v>1034.563628226949</v>
+        <v>3986061.168888775</v>
       </c>
       <c r="I26">
-        <v>-555.0139465800313</v>
+        <v>1115814.947440589</v>
       </c>
       <c r="J26">
-        <v>561.2814812903824</v>
+        <v>4842054.879960047</v>
       </c>
       <c r="K26">
-        <v>2177.46339745671</v>
+        <v>3987476.42954429</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1364,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>69.56782633684004</v>
+        <v>1116418.977872892</v>
       </c>
       <c r="G27">
-        <v>315.4723307975592</v>
+        <v>4841423.674531447</v>
       </c>
       <c r="H27">
-        <v>1045.010527457648</v>
+        <v>3986078.257248788</v>
       </c>
       <c r="I27">
-        <v>-501.0884290480942</v>
+        <v>1115868.041561453</v>
       </c>
       <c r="J27">
-        <v>528.4745542905025</v>
+        <v>4842006.228379413</v>
       </c>
       <c r="K27">
-        <v>2135.615174109567</v>
+        <v>3987416.657738644</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1399,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>67.71496866627146</v>
+        <v>1116417.433604278</v>
       </c>
       <c r="G28">
-        <v>341.8847354489223</v>
+        <v>4841440.187357071</v>
       </c>
       <c r="H28">
-        <v>1054.894291670047</v>
+        <v>3986094.424469071</v>
       </c>
       <c r="I28">
-        <v>-445.8350452574999</v>
+        <v>1115922.443076198</v>
       </c>
       <c r="J28">
-        <v>495.6676272906226</v>
+        <v>4841957.576798779</v>
       </c>
       <c r="K28">
-        <v>2083.160881569797</v>
+        <v>3987341.73728735</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1434,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>66.00256665828097</v>
+        <v>1116416.006398769</v>
       </c>
       <c r="G29">
-        <v>368.2971401002853</v>
+        <v>4841456.700182696</v>
       </c>
       <c r="H29">
-        <v>1064.272539239398</v>
+        <v>3986109.764798026</v>
       </c>
       <c r="I29">
-        <v>-389.2210977232425</v>
+        <v>1115978.184178194</v>
       </c>
       <c r="J29">
-        <v>462.8607002907426</v>
+        <v>4841908.925218145</v>
       </c>
       <c r="K29">
-        <v>2020.100519837399</v>
+        <v>3987251.66819041</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1469,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>64.41373990471605</v>
+        <v>1116414.682187348</v>
       </c>
       <c r="G30">
-        <v>394.7095447516483</v>
+        <v>4841473.213008319</v>
       </c>
       <c r="H30">
-        <v>1073.194474239022</v>
+        <v>3986124.358720483</v>
       </c>
       <c r="I30">
-        <v>-331.2130838148309</v>
+        <v>1116035.297853547</v>
       </c>
       <c r="J30">
-        <v>430.0537732908626</v>
+        <v>4841860.273637512</v>
       </c>
       <c r="K30">
-        <v>1946.434088912373</v>
+        <v>3987146.450447822</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1504,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>62.93431629016168</v>
+        <v>1116413.449158233</v>
       </c>
       <c r="G31">
-        <v>421.1219494030113</v>
+        <v>4841489.725833944</v>
       </c>
       <c r="H31">
-        <v>1081.702449045958</v>
+        <v>3986138.275513712</v>
       </c>
       <c r="I31">
-        <v>-271.7766759303191</v>
+        <v>1116093.817900611</v>
       </c>
       <c r="J31">
-        <v>397.2468462909828</v>
+        <v>4841811.622056876</v>
       </c>
       <c r="K31">
-        <v>1862.161588794722</v>
+        <v>3987026.084059588</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1539,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>61.55229811603154</v>
+        <v>1116412.297311912</v>
       </c>
       <c r="G32">
-        <v>447.5343540543744</v>
+        <v>4841506.238659569</v>
       </c>
       <c r="H32">
-        <v>1089.833180247525</v>
+        <v>3986151.575236326</v>
       </c>
       <c r="I32">
-        <v>-210.8767011821438</v>
+        <v>1116153.778949997</v>
       </c>
       <c r="J32">
-        <v>364.4399192911027</v>
+        <v>4841762.970476243</v>
       </c>
       <c r="K32">
-        <v>1767.283019484442</v>
+        <v>3986890.569025705</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1574,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>60.25745138923565</v>
+        <v>1116411.218118841</v>
       </c>
       <c r="G33">
-        <v>473.9467587057374</v>
+        <v>4841522.751485192</v>
       </c>
       <c r="H33">
-        <v>1097.618706247512</v>
+        <v>3986164.310294666</v>
       </c>
       <c r="I33">
-        <v>-148.4771205827438</v>
+        <v>1116215.216485061</v>
       </c>
       <c r="J33">
-        <v>331.6329922912229</v>
+        <v>4841714.318895609</v>
       </c>
       <c r="K33">
-        <v>1661.798380981536</v>
+        <v>3986739.905346176</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1609,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>59.04098606305457</v>
+        <v>1116410.204252933</v>
       </c>
       <c r="G34">
-        <v>500.3591633571004</v>
+        <v>4841539.264310817</v>
       </c>
       <c r="H34">
-        <v>1105.08714974338</v>
+        <v>3986176.526690017</v>
       </c>
       <c r="I34">
-        <v>-84.541007717645</v>
+        <v>1116278.166862904</v>
       </c>
       <c r="J34">
-        <v>298.8260652913429</v>
+        <v>4841665.667314976</v>
       </c>
       <c r="K34">
-        <v>1545.707673286002</v>
+        <v>3986574.093020999</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1644,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>57.89530435844535</v>
+        <v>1116409.249381803</v>
       </c>
       <c r="G35">
-        <v>526.7715680084635</v>
+        <v>4841555.777136441</v>
       </c>
       <c r="H35">
-        <v>1112.2633309251</v>
+        <v>3986188.265021635</v>
       </c>
       <c r="I35">
-        <v>-19.0305268933887</v>
+        <v>1116342.667335889</v>
       </c>
       <c r="J35">
-        <v>266.0191382914629</v>
+        <v>4841617.015734341</v>
       </c>
       <c r="K35">
-        <v>1419.010896397841</v>
+        <v>3986393.132050175</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1679,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>56.81380068051401</v>
+        <v>1116408.348000001</v>
       </c>
       <c r="G36">
-        <v>553.1839726598266</v>
+        <v>4841572.289962065</v>
       </c>
       <c r="H36">
-        <v>1119.169265149098</v>
+        <v>3986199.561300813</v>
       </c>
       <c r="I36">
-        <v>48.09308925262784</v>
+        <v>1116408.756073681</v>
       </c>
       <c r="J36">
-        <v>233.212211291583</v>
+        <v>4841568.364153707</v>
       </c>
       <c r="K36">
-        <v>1281.708050317053</v>
+        <v>3986197.022433704</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1714,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>55.79070108365966</v>
+        <v>1116407.495295219</v>
       </c>
       <c r="G37">
-        <v>579.5963773111896</v>
+        <v>4841588.80278769</v>
       </c>
       <c r="H37">
-        <v>1125.824570259184</v>
+        <v>3986210.447617145</v>
       </c>
       <c r="I37">
-        <v>116.8695626936454</v>
+        <v>1116476.472185841</v>
       </c>
       <c r="J37">
-        <v>200.405284291703</v>
+        <v>4841519.712573074</v>
       </c>
       <c r="K37">
-        <v>1133.799135043638</v>
+        <v>3985985.764171586</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1749,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>54.82093337055501</v>
+        <v>1116406.687040022</v>
       </c>
       <c r="G38">
-        <v>606.0087819625526</v>
+        <v>4841605.315613314</v>
       </c>
       <c r="H38">
-        <v>1132.246802551063</v>
+        <v>3986220.952688082</v>
       </c>
       <c r="I38">
-        <v>187.3395935199533</v>
+        <v>1116545.855744965</v>
       </c>
       <c r="J38">
-        <v>167.5983572918232</v>
+        <v>4841471.06099244</v>
       </c>
       <c r="K38">
-        <v>975.2841505775959</v>
+        <v>3985759.35726382</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1784,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>53.90002115034692</v>
+        <v>1116405.919503551</v>
       </c>
       <c r="G39">
-        <v>632.4211866139157</v>
+        <v>4841621.828438939</v>
       </c>
       <c r="H39">
-        <v>1138.451735874707</v>
+        <v>3986231.102315464</v>
       </c>
       <c r="I39">
-        <v>259.5448840241187</v>
+        <v>1116616.947810401</v>
       </c>
       <c r="J39">
-        <v>134.7914302919432</v>
+        <v>4841422.409411806</v>
       </c>
       <c r="K39">
-        <v>806.1630969189258</v>
+        <v>3985517.801710407</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1819,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>53.02399680454943</v>
+        <v>1116405.189378985</v>
       </c>
       <c r="G40">
-        <v>658.8335912652786</v>
+        <v>4841638.341264564</v>
       </c>
       <c r="H40">
-        <v>1144.453595046171</v>
+        <v>3986240.919767323</v>
       </c>
       <c r="I40">
-        <v>333.5281633793006</v>
+        <v>1116689.790452545</v>
       </c>
       <c r="J40">
-        <v>101.9845032920632</v>
+        <v>4841373.757831172</v>
       </c>
       <c r="K40">
-        <v>626.435974067629</v>
+        <v>3985261.097511348</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1854,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>52.18932949905061</v>
+        <v>1116404.493723542</v>
       </c>
       <c r="G41">
-        <v>685.2459959166417</v>
+        <v>4841654.854090187</v>
       </c>
       <c r="H41">
-        <v>1150.265252260779</v>
+        <v>3986250.42609916</v>
       </c>
       <c r="I41">
-        <v>409.3332129252337</v>
+        <v>1116764.426777737</v>
       </c>
       <c r="J41">
-        <v>69.17757629218332</v>
+        <v>4841325.106250538</v>
       </c>
       <c r="K41">
-        <v>436.1027820237053</v>
+        <v>3984989.24466664</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1889,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>51.39286526268776</v>
+        <v>1116403.829908538</v>
       </c>
       <c r="G42">
-        <v>711.6584005680047</v>
+        <v>4841671.366915812</v>
       </c>
       <c r="H42">
-        <v>1155.898393329638</v>
+        <v>3986259.640425867</v>
       </c>
       <c r="I42">
-        <v>487.0048920768703</v>
+        <v>1116840.900953774</v>
       </c>
       <c r="J42">
-        <v>36.37064929230331</v>
+        <v>4841276.454669905</v>
       </c>
       <c r="K42">
-        <v>235.1635207871539</v>
+        <v>3984702.243176286</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1924,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>50.63177681334768</v>
+        <v>1116403.195577567</v>
       </c>
       <c r="G43">
-        <v>738.0708052193678</v>
+        <v>4841687.879741436</v>
       </c>
       <c r="H43">
-        <v>1161.363659137585</v>
+        <v>3986268.580153114</v>
       </c>
       <c r="I43">
-        <v>566.5891648709808</v>
+        <v>1116919.25823604</v>
       </c>
       <c r="J43">
-        <v>3.563722292423306</v>
+        <v>4841227.80308927</v>
       </c>
       <c r="K43">
-        <v>23.6181903579754</v>
+        <v>3984400.093040285</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1959,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>49.90352131192005</v>
+        <v>1116402.588611295</v>
       </c>
       <c r="G44">
-        <v>764.4832098707308</v>
+        <v>4841704.39256706</v>
       </c>
       <c r="H44">
-        <v>1166.670766626642</v>
+        <v>3986277.261175242</v>
       </c>
       <c r="I44">
-        <v>648.133127166457</v>
+        <v>1116999.544994295</v>
       </c>
       <c r="J44">
-        <v>-29.24320470745655</v>
+        <v>4841179.151508637</v>
       </c>
       <c r="K44">
-        <v>-198.5332092638296</v>
+        <v>3984082.794258635</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1994,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>49.2058046053592</v>
+        <v>1116402.007097653</v>
       </c>
       <c r="G45">
-        <v>790.8956145220938</v>
+        <v>4841720.905392685</v>
       </c>
       <c r="H45">
-        <v>1171.828612761318</v>
+        <v>3986285.698045331</v>
       </c>
       <c r="I45">
-        <v>731.6850345143901</v>
+        <v>1117081.808740109</v>
       </c>
       <c r="J45">
-        <v>-62.05013170733655</v>
+        <v>4841130.499928003</v>
       </c>
       <c r="K45">
-        <v>-431.2906780782624</v>
+        <v>3983750.34683134</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2029,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>48.53655081313288</v>
+        <v>1116401.449306495</v>
       </c>
       <c r="G46">
-        <v>817.308019173457</v>
+        <v>4841737.418218308</v>
       </c>
       <c r="H46">
-        <v>1176.845364269945</v>
+        <v>3986293.904121984</v>
       </c>
       <c r="I46">
-        <v>817.2943307144212</v>
+        <v>1117166.098154982</v>
       </c>
       <c r="J46">
-        <v>-94.85705870721655</v>
+        <v>4841081.848347369</v>
       </c>
       <c r="K46">
-        <v>-674.654216085323</v>
+        <v>3983402.750758396</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2064,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>47.89387633853182</v>
+        <v>1116400.913667932</v>
       </c>
       <c r="G47">
-        <v>843.7204238248199</v>
+        <v>4841753.931043933</v>
       </c>
       <c r="H47">
-        <v>1181.728535435257</v>
+        <v>3986301.891696578</v>
       </c>
       <c r="I47">
-        <v>905.0116770742698</v>
+        <v>1117252.463119152</v>
       </c>
       <c r="J47">
-        <v>-127.6639857070966</v>
+        <v>4841033.196766735</v>
       </c>
       <c r="K47">
-        <v>-928.6238232850103</v>
+        <v>3983040.006039806</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2099,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>47.27606756376788</v>
+        <v>1116400.398753745</v>
       </c>
       <c r="G48">
-        <v>870.1328284761829</v>
+        <v>4841770.443869557</v>
       </c>
       <c r="H48">
-        <v>1186.485055794524</v>
+        <v>3986309.672104</v>
       </c>
       <c r="I48">
-        <v>994.88898238975</v>
+        <v>1117340.954741111</v>
       </c>
       <c r="J48">
-        <v>-160.4709127069763</v>
+        <v>4840984.545186101</v>
       </c>
       <c r="K48">
-        <v>-1193.199499677323</v>
+        <v>3982662.112675568</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2134,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>46.6815616273765</v>
+        <v>1116399.903261364</v>
       </c>
       <c r="G49">
-        <v>896.545233127546</v>
+        <v>4841786.956695181</v>
       </c>
       <c r="H49">
-        <v>1191.121329280239</v>
+        <v>3986317.255819386</v>
       </c>
       <c r="I49">
-        <v>1086.97943366302</v>
+        <v>1117431.625387849</v>
       </c>
       <c r="J49">
-        <v>-193.2778397068563</v>
+        <v>4840935.893605468</v>
       </c>
       <c r="K49">
-        <v>-1468.381245262264</v>
+        <v>3982269.070665684</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2169,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>46.10892979296003</v>
+        <v>1116399.426000006</v>
       </c>
       <c r="G50">
-        <v>922.957637778909</v>
+        <v>4841803.469520806</v>
       </c>
       <c r="H50">
-        <v>1195.643286068023</v>
+        <v>3986324.652542936</v>
       </c>
       <c r="I50">
-        <v>1181.337527577233</v>
+        <v>1117524.528715848</v>
       </c>
       <c r="J50">
-        <v>-226.0847667067363</v>
+        <v>4840887.242024833</v>
       </c>
       <c r="K50">
-        <v>-1754.169060039834</v>
+        <v>3981860.880010151</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>45.55686300636989</v>
+        <v>1116398.965878635</v>
       </c>
       <c r="G51">
-        <v>949.370042430272</v>
+        <v>4841819.98234643</v>
       </c>
       <c r="H51">
-        <v>1200.056428184976</v>
+        <v>3986331.871274505</v>
       </c>
       <c r="I51">
-        <v>1278.019102746228</v>
+        <v>1117619.719702829</v>
       </c>
       <c r="J51">
-        <v>-258.8916937066163</v>
+        <v>4840838.5904442</v>
       </c>
       <c r="K51">
-        <v>-2050.56294401003</v>
+        <v>3981437.540708972</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2239,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>45.02415930900823</v>
+        <v>1116398.521895477</v>
       </c>
       <c r="G52">
-        <v>975.7824470816352</v>
+        <v>4841836.495172055</v>
       </c>
       <c r="H52">
-        <v>1204.365869758395</v>
+        <v>3986338.920379454</v>
       </c>
       <c r="I52">
-        <v>1377.081372758342</v>
+        <v>1117717.254680291</v>
       </c>
       <c r="J52">
-        <v>-291.6986207064963</v>
+        <v>4840789.938863566</v>
       </c>
       <c r="K52">
-        <v>-2357.562897172853</v>
+        <v>3980999.052762145</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2274,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>44.50971283181553</v>
+        <v>1116398.093128842</v>
       </c>
       <c r="G53">
-        <v>1002.194851732998</v>
+        <v>4841853.007997679</v>
       </c>
       <c r="H53">
-        <v>1208.576372643339</v>
+        <v>3986345.807646914</v>
       </c>
       <c r="I53">
-        <v>1478.582960033885</v>
+        <v>1117817.191366842</v>
       </c>
       <c r="J53">
-        <v>-324.505547706376</v>
+        <v>4840741.287282933</v>
       </c>
       <c r="K53">
-        <v>-2675.168919528301</v>
+        <v>3980545.416169672</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2309,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>44.01250414061456</v>
+        <v>1116397.67872908</v>
       </c>
       <c r="G54">
-        <v>1028.607256384361</v>
+        <v>4841869.520823304</v>
       </c>
       <c r="H54">
-        <v>1212.692378051476</v>
+        <v>3986352.540341533</v>
       </c>
       <c r="I54">
-        <v>1582.583930516342</v>
+        <v>1117919.588902359</v>
       </c>
       <c r="J54">
-        <v>-357.312474706256</v>
+        <v>4840692.635702297</v>
       </c>
       <c r="K54">
-        <v>-3003.381011076379</v>
+        <v>3980076.630931551</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2344,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G55">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H55">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I55">
-        <v>-753.1142324855588</v>
+        <v>1114863.066187164</v>
       </c>
       <c r="J55">
-        <v>1758.440870833218</v>
+        <v>4843212.304524329</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.984968424</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2379,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G56">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H56">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I56">
-        <v>-738.2457521909233</v>
+        <v>1114892.680229018</v>
       </c>
       <c r="J56">
-        <v>1715.665400241273</v>
+        <v>4843163.653046291</v>
       </c>
       <c r="K56">
-        <v>349.612762145768</v>
+        <v>3984671.780782272</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2414,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G57">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H57">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I57">
-        <v>-723.0111492477836</v>
+        <v>1114923.023489407</v>
       </c>
       <c r="J57">
-        <v>1672.889929649328</v>
+        <v>4843115.001568253</v>
       </c>
       <c r="K57">
-        <v>681.7922294035783</v>
+        <v>3984960.427944292</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2449,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G58">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H58">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I58">
-        <v>-707.4014082227467</v>
+        <v>1114954.113924669</v>
       </c>
       <c r="J58">
-        <v>1630.114459057383</v>
+        <v>4843066.350090215</v>
       </c>
       <c r="K58">
-        <v>996.5384017734333</v>
+        <v>3985233.926454483</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2484,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G59">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H59">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I59">
-        <v>-691.4072916856669</v>
+        <v>1114985.969933296</v>
       </c>
       <c r="J59">
-        <v>1587.338988465438</v>
+        <v>4843017.698612178</v>
       </c>
       <c r="K59">
-        <v>1293.851279255331</v>
+        <v>3985492.276312845</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2519,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G60">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H60">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I60">
-        <v>-675.0193347431785</v>
+        <v>1115018.610366829</v>
       </c>
       <c r="J60">
-        <v>1544.563517873493</v>
+        <v>4842969.047134141</v>
       </c>
       <c r="K60">
-        <v>1573.730861849274</v>
+        <v>3985735.477519379</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2554,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G61">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H61">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I61">
-        <v>-658.2278394376256</v>
+        <v>1115052.054541009</v>
       </c>
       <c r="J61">
-        <v>1501.788047281548</v>
+        <v>4842920.395656102</v>
       </c>
       <c r="K61">
-        <v>1836.17714955526</v>
+        <v>3985963.530074085</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2589,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G62">
-        <v>-94.26835364945252</v>
+        <v>4841125.241807077</v>
       </c>
       <c r="H62">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I62">
-        <v>-641.0228690080656</v>
+        <v>1115086.322247209</v>
       </c>
       <c r="J62">
-        <v>1459.012576689604</v>
+        <v>4842871.744178065</v>
       </c>
       <c r="K62">
-        <v>2081.190142373289</v>
+        <v>3986176.433976962</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2624,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>264.8056693364696</v>
+        <v>1116577.879627159</v>
       </c>
       <c r="G63">
-        <v>-78.70199498234371</v>
+        <v>4841141.754628602</v>
       </c>
       <c r="H63">
-        <v>655.9460749244126</v>
+        <v>3985224.250721457</v>
       </c>
       <c r="I63">
-        <v>-623.3942420099606</v>
+        <v>1115121.43376415</v>
       </c>
       <c r="J63">
-        <v>1416.237106097659</v>
+        <v>4842823.092700028</v>
       </c>
       <c r="K63">
-        <v>2308.769840303362</v>
+        <v>3986374.18922801</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2659,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>205.5200906967169</v>
+        <v>1116529.199090604</v>
       </c>
       <c r="G64">
-        <v>-63.1356363152349</v>
+        <v>4841158.267450127</v>
       </c>
       <c r="H64">
-        <v>808.1211504091259</v>
+        <v>3985423.504924357</v>
       </c>
       <c r="I64">
-        <v>-605.3315262900664</v>
+        <v>1115157.409869893</v>
       </c>
       <c r="J64">
-        <v>1373.461635505714</v>
+        <v>4842774.441221991</v>
       </c>
       <c r="K64">
-        <v>2518.916243345478</v>
+        <v>3986556.795827231</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2694,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>170.6927873315338</v>
+        <v>1116500.601717457</v>
       </c>
       <c r="G65">
-        <v>-47.56927764812611</v>
+        <v>4841174.780271652</v>
       </c>
       <c r="H65">
-        <v>898.7644078966387</v>
+        <v>3985542.190917851</v>
       </c>
       <c r="I65">
-        <v>-586.8240328129638</v>
+        <v>1115194.271854142</v>
       </c>
       <c r="J65">
-        <v>1330.686164913769</v>
+        <v>4842725.789743952</v>
       </c>
       <c r="K65">
-        <v>2711.629351499638</v>
+        <v>3986724.253774622</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2729,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>148.7072383871816</v>
+        <v>1116482.548957517</v>
       </c>
       <c r="G66">
-        <v>-32.00291898101731</v>
+        <v>4841191.293093177</v>
       </c>
       <c r="H66">
-        <v>963.5410176793961</v>
+        <v>3985627.007775722</v>
       </c>
       <c r="I66">
-        <v>-567.860809335569</v>
+        <v>1115232.041530842</v>
       </c>
       <c r="J66">
-        <v>1287.910694321824</v>
+        <v>4842677.138265914</v>
       </c>
       <c r="K66">
-        <v>2886.909164765842</v>
+        <v>3986876.563070185</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2764,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>133.3746057979728</v>
+        <v>1116469.959036016</v>
       </c>
       <c r="G67">
-        <v>-16.4365603139085</v>
+        <v>4841207.805914701</v>
       </c>
       <c r="H67">
-        <v>1013.982529013135</v>
+        <v>3985693.054617505</v>
       </c>
       <c r="I67">
-        <v>-548.4306339258892</v>
+        <v>1115270.741251082</v>
       </c>
       <c r="J67">
-        <v>1245.135223729879</v>
+        <v>4842628.486787877</v>
       </c>
       <c r="K67">
-        <v>3044.755683144091</v>
+        <v>3987013.72371392</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2799,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>121.9360027264659</v>
+        <v>1116460.566577551</v>
       </c>
       <c r="G68">
-        <v>-0.8702016467997074</v>
+        <v>4841224.318736226</v>
       </c>
       <c r="H68">
-        <v>1055.298039395727</v>
+        <v>3985747.152103986</v>
       </c>
       <c r="I68">
-        <v>-528.5220083221798</v>
+        <v>1115310.393916331</v>
       </c>
       <c r="J68">
-        <v>1202.359753137935</v>
+        <v>4842579.83530984</v>
       </c>
       <c r="K68">
-        <v>3185.168906634381</v>
+        <v>3987135.735705826</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2834,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>112.9926124781099</v>
+        <v>1116453.222986649</v>
       </c>
       <c r="G69">
-        <v>14.6961570203091</v>
+        <v>4841240.831557751</v>
       </c>
       <c r="H69">
-        <v>1090.289260803697</v>
+        <v>3985792.968726109</v>
       </c>
       <c r="I69">
-        <v>-508.1231511285787</v>
+        <v>1115351.022991981</v>
       </c>
       <c r="J69">
-        <v>1159.58428254599</v>
+        <v>4842531.183831802</v>
       </c>
       <c r="K69">
-        <v>3308.148835236716</v>
+        <v>3987242.599045904</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2869,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>105.7567585775935</v>
+        <v>1116447.281486905</v>
       </c>
       <c r="G70">
-        <v>30.26251568741791</v>
+        <v>4841257.344379276</v>
       </c>
       <c r="H70">
-        <v>1120.63777252395</v>
+        <v>3985832.706301352</v>
       </c>
       <c r="I70">
-        <v>-487.2219908431895</v>
+        <v>1115392.652521241</v>
       </c>
       <c r="J70">
-        <v>1116.808811954045</v>
+        <v>4842482.532353764</v>
       </c>
       <c r="K70">
-        <v>3413.695468951094</v>
+        <v>3987334.313734153</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2904,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>99.74842156098195</v>
+        <v>1116442.347925042</v>
       </c>
       <c r="G71">
-        <v>45.8288743545267</v>
+        <v>4841273.857200801</v>
       </c>
       <c r="H71">
-        <v>1147.432505275455</v>
+        <v>3985867.79064811</v>
       </c>
       <c r="I71">
-        <v>-465.8061587144877</v>
+        <v>1115435.307139361</v>
       </c>
       <c r="J71">
-        <v>1074.0333413621</v>
+        <v>4842433.880875727</v>
       </c>
       <c r="K71">
-        <v>3501.808807777517</v>
+        <v>3987410.879770574</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2939,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>94.65680801059402</v>
+        <v>1116438.167102568</v>
       </c>
       <c r="G72">
-        <v>61.39523302163552</v>
+        <v>4841290.370022325</v>
       </c>
       <c r="H72">
-        <v>1171.419182962081</v>
+        <v>3985899.198198443</v>
       </c>
       <c r="I72">
-        <v>-443.8629814218207</v>
+        <v>1115479.01208821</v>
       </c>
       <c r="J72">
-        <v>1031.257870770155</v>
+        <v>4842385.22939769</v>
       </c>
       <c r="K72">
-        <v>3572.488851715983</v>
+        <v>3987472.297155167</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2974,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>90.27087967661784</v>
+        <v>1116434.56573189</v>
       </c>
       <c r="G73">
-        <v>76.96159168874431</v>
+        <v>4841306.88284385</v>
       </c>
       <c r="H73">
-        <v>1193.130935893039</v>
+        <v>3985927.62701972</v>
       </c>
       <c r="I73">
-        <v>-421.3794735756747</v>
+        <v>1115523.793231217</v>
       </c>
       <c r="J73">
-        <v>988.4824001782105</v>
+        <v>4842336.577919652</v>
       </c>
       <c r="K73">
-        <v>3625.735600766492</v>
+        <v>3987518.565887931</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3009,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>86.44173761253271</v>
+        <v>1116431.421549198</v>
       </c>
       <c r="G74">
-        <v>92.52795035585311</v>
+        <v>4841323.395665376</v>
       </c>
       <c r="H74">
-        <v>1212.962143100857</v>
+        <v>3985953.593501893</v>
       </c>
       <c r="I74">
-        <v>-398.3423300332655</v>
+        <v>1115569.677068673</v>
       </c>
       <c r="J74">
-        <v>945.7069295862656</v>
+        <v>4842287.926441614</v>
       </c>
       <c r="K74">
-        <v>3661.549054929045</v>
+        <v>3987549.685968866</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3044,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>83.06096707980875</v>
+        <v>1116428.645533052</v>
       </c>
       <c r="G75">
-        <v>108.0943090229619</v>
+        <v>4841339.9084869</v>
       </c>
       <c r="H75">
-        <v>1231.212760241801</v>
+        <v>3985977.490399327</v>
       </c>
       <c r="I75">
-        <v>-374.7379180249076</v>
+        <v>1115616.690753413</v>
       </c>
       <c r="J75">
-        <v>902.9314589943209</v>
+        <v>4842239.274963576</v>
       </c>
       <c r="K75">
-        <v>3679.929214203642</v>
+        <v>3987565.657397973</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3079,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>80.04752766567272</v>
+        <v>1116426.171139601</v>
       </c>
       <c r="G76">
-        <v>123.6606676900707</v>
+        <v>4841356.421308425</v>
       </c>
       <c r="H76">
-        <v>1248.116247205354</v>
+        <v>3985999.623398508</v>
       </c>
       <c r="I76">
-        <v>-350.5522690865049</v>
+        <v>1115664.862106889</v>
       </c>
       <c r="J76">
-        <v>860.155988402376</v>
+        <v>4842190.623485539</v>
       </c>
       <c r="K76">
-        <v>3680.876078590283</v>
+        <v>3987566.480175252</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3114,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>77.33947644260034</v>
+        <v>1116423.947506306</v>
       </c>
       <c r="G77">
-        <v>139.2270263571795</v>
+        <v>4841372.934129951</v>
       </c>
       <c r="H77">
-        <v>1263.857877681201</v>
+        <v>3986020.23509213</v>
       </c>
       <c r="I77">
-        <v>-325.7710707933831</v>
+        <v>1115714.219635627</v>
       </c>
       <c r="J77">
-        <v>817.380517810431</v>
+        <v>4842141.972007501</v>
       </c>
       <c r="K77">
-        <v>3664.389648088967</v>
+        <v>3987552.154300701</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3149,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>74.88855350532093</v>
+        <v>1116421.935006026</v>
       </c>
       <c r="G78">
-        <v>154.7933850242883</v>
+        <v>4841389.446951474</v>
       </c>
       <c r="H78">
-        <v>1278.587150664798</v>
+        <v>3986039.521230404</v>
       </c>
       <c r="I78">
-        <v>-300.3796582905774</v>
+        <v>1115764.792548102</v>
       </c>
       <c r="J78">
-        <v>774.6050472184863</v>
+        <v>4842093.320529464</v>
       </c>
       <c r="K78">
-        <v>3630.469922699695</v>
+        <v>3987522.679774323</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3184,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>72.65653053093932</v>
+        <v>1116420.102248743</v>
       </c>
       <c r="G79">
-        <v>170.3597436913971</v>
+        <v>4841405.959772999</v>
       </c>
       <c r="H79">
-        <v>1292.426446482627</v>
+        <v>3986057.642055041</v>
       </c>
       <c r="I79">
-        <v>-274.3630056145613</v>
+        <v>1115816.610772021</v>
       </c>
       <c r="J79">
-        <v>731.8295766265414</v>
+        <v>4842044.669051426</v>
       </c>
       <c r="K79">
-        <v>3579.116902422466</v>
+        <v>3987478.056596116</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3219,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>70.61268250800995</v>
+        <v>1116418.424005557</v>
       </c>
       <c r="G80">
-        <v>185.9261023585059</v>
+        <v>4841422.472594524</v>
       </c>
       <c r="H80">
-        <v>1305.477213473763</v>
+        <v>3986074.730399934</v>
       </c>
       <c r="I80">
-        <v>-247.70571680128</v>
+        <v>1115869.704972031</v>
       </c>
       <c r="J80">
-        <v>689.0541060345965</v>
+        <v>4841996.017573388</v>
       </c>
       <c r="K80">
-        <v>3510.330587257281</v>
+        <v>3987418.28476608</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3254,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>68.73199631564712</v>
+        <v>1116416.879737709</v>
       </c>
       <c r="G81">
-        <v>201.4924610256147</v>
+        <v>4841438.985416049</v>
       </c>
       <c r="H81">
-        <v>1317.824485222332</v>
+        <v>3986090.897605913</v>
       </c>
       <c r="I81">
-        <v>-220.3920167752278</v>
+        <v>1115924.106567872</v>
       </c>
       <c r="J81">
-        <v>646.2786354426518</v>
+        <v>4841947.366095351</v>
       </c>
       <c r="K81">
-        <v>3424.11097720414</v>
+        <v>3987343.364284216</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3289,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>66.9938753237558</v>
+        <v>1116415.452532908</v>
       </c>
       <c r="G82">
-        <v>217.0588196927235</v>
+        <v>4841455.498237574</v>
       </c>
       <c r="H82">
-        <v>1329.540241362979</v>
+        <v>3986106.237921295</v>
       </c>
       <c r="I82">
-        <v>-192.405742014177</v>
+        <v>1115979.847752961</v>
       </c>
       <c r="J82">
-        <v>603.5031648507069</v>
+        <v>4841898.714617313</v>
       </c>
       <c r="K82">
-        <v>3320.458072263042</v>
+        <v>3987253.295150524</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3324,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>65.3811855932115</v>
+        <v>1116414.128322144</v>
       </c>
       <c r="G83">
-        <v>232.6251783598323</v>
+        <v>4841472.011059098</v>
       </c>
       <c r="H83">
-        <v>1340.685949981283</v>
+        <v>3986120.831830839</v>
       </c>
       <c r="I83">
-        <v>-163.730330984036</v>
+        <v>1116036.961513452</v>
       </c>
       <c r="J83">
-        <v>560.727694258762</v>
+        <v>4841850.063139276</v>
       </c>
       <c r="K83">
-        <v>3199.371872433988</v>
+        <v>3987148.077365003</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3359,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>63.87954215413713</v>
+        <v>1116412.89529364</v>
       </c>
       <c r="G84">
-        <v>248.1915370269411</v>
+        <v>4841488.523880623</v>
       </c>
       <c r="H84">
-        <v>1351.314519695586</v>
+        <v>3986134.748611755</v>
       </c>
       <c r="I84">
-        <v>-134.3488143381724</v>
+        <v>1116095.481647752</v>
       </c>
       <c r="J84">
-        <v>517.9522236668173</v>
+        <v>4841801.411661237</v>
       </c>
       <c r="K84">
-        <v>3060.852377716978</v>
+        <v>3987027.710927654</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3394,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>62.47676711158169</v>
+        <v>1116411.743447891</v>
       </c>
       <c r="G85">
-        <v>263.75789569405</v>
+        <v>4841505.036702149</v>
       </c>
       <c r="H85">
-        <v>1361.471818625721</v>
+        <v>3986148.048322601</v>
       </c>
       <c r="I85">
-        <v>-104.243804875404</v>
+        <v>1116155.442786521</v>
       </c>
       <c r="J85">
-        <v>475.1767530748724</v>
+        <v>4841752.7601832</v>
       </c>
       <c r="K85">
-        <v>2904.899588112011</v>
+        <v>3986892.195838476</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3429,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>61.16247276561395</v>
+        <v>1116410.664255355</v>
       </c>
       <c r="G86">
-        <v>279.3242543611588</v>
+        <v>4841521.549523673</v>
       </c>
       <c r="H86">
-        <v>1371.197870680544</v>
+        <v>3986160.783369673</v>
       </c>
       <c r="I86">
-        <v>-73.39748725071567</v>
+        <v>1116216.880413169</v>
       </c>
       <c r="J86">
-        <v>432.4012824829276</v>
+        <v>4841704.108705163</v>
       </c>
       <c r="K86">
-        <v>2731.513503619089</v>
+        <v>3986741.53209747</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3464,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>59.92773704965641</v>
+        <v>1116409.650389951</v>
       </c>
       <c r="G87">
-        <v>294.8906130282675</v>
+        <v>4841538.062345198</v>
       </c>
       <c r="H87">
-        <v>1380.527808080976</v>
+        <v>3986172.999754216</v>
       </c>
       <c r="I87">
-        <v>-41.79160743261119</v>
+        <v>1116279.830884852</v>
       </c>
       <c r="J87">
-        <v>389.6258118909827</v>
+        <v>4841655.457227126</v>
       </c>
       <c r="K87">
-        <v>2540.694124238209</v>
+        <v>3986575.719704635</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3499,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>58.76484807176743</v>
+        <v>1116408.695519294</v>
       </c>
       <c r="G88">
-        <v>310.4569716953764</v>
+        <v>4841554.575166723</v>
       </c>
       <c r="H88">
-        <v>1389.492637397371</v>
+        <v>3986184.738075447</v>
       </c>
       <c r="I88">
-        <v>-9.407461900862295</v>
+        <v>1116344.331453986</v>
       </c>
       <c r="J88">
-        <v>346.8503412990378</v>
+        <v>4841606.805749088</v>
       </c>
       <c r="K88">
-        <v>2332.441449969373</v>
+        <v>3986394.758659971</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3534,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>57.66710102601031</v>
+        <v>1116407.79413794</v>
       </c>
       <c r="G89">
-        <v>326.0233303624852</v>
+        <v>4841571.087988247</v>
       </c>
       <c r="H89">
-        <v>1398.119861267654</v>
+        <v>3986196.03434463</v>
       </c>
       <c r="I89">
-        <v>23.77411342173841</v>
+        <v>1116410.420290296</v>
       </c>
       <c r="J89">
-        <v>304.0748707070931</v>
+        <v>4841558.15427105</v>
       </c>
       <c r="K89">
-        <v>2106.755480812581</v>
+        <v>3986198.64896348</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3569,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>56.62863524648526</v>
+        <v>1116406.94143358</v>
       </c>
       <c r="G90">
-        <v>341.589689029594</v>
+        <v>4841587.600809772</v>
       </c>
       <c r="H90">
-        <v>1406.433987242125</v>
+        <v>3986206.92065133</v>
       </c>
       <c r="I90">
-        <v>57.77275451016857</v>
+        <v>1116478.136503399</v>
       </c>
       <c r="J90">
-        <v>261.2994001151482</v>
+        <v>4841509.502793013</v>
       </c>
       <c r="K90">
-        <v>1863.636216767833</v>
+        <v>3985987.39061516</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3604,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>55.64430235529481</v>
+        <v>1116406.133178784</v>
       </c>
       <c r="G91">
-        <v>357.1560476967028</v>
+        <v>4841604.113631297</v>
       </c>
       <c r="H91">
-        <v>1414.456947486441</v>
+        <v>3986217.425712972</v>
       </c>
       <c r="I91">
-        <v>92.60858085722535</v>
+        <v>1116547.520165953</v>
       </c>
       <c r="J91">
-        <v>218.5239295232035</v>
+        <v>4841460.851314975</v>
       </c>
       <c r="K91">
-        <v>1603.083657835129</v>
+        <v>3985760.983615011</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3639,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>54.70955872957849</v>
+        <v>1116405.365642694</v>
       </c>
       <c r="G92">
-        <v>372.7224063638116</v>
+        <v>4841620.626452822</v>
       </c>
       <c r="H92">
-        <v>1422.20844744965</v>
+        <v>3986227.575331374</v>
       </c>
       <c r="I92">
-        <v>128.3022073797054</v>
+        <v>1116618.612337365</v>
       </c>
       <c r="J92">
-        <v>175.7484589312585</v>
+        <v>4841412.199836937</v>
       </c>
       <c r="K92">
-        <v>1325.097804014467</v>
+        <v>3985519.427963033</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3674,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>53.8203771602195</v>
+        <v>1116404.63551849</v>
       </c>
       <c r="G93">
-        <v>388.2887650309203</v>
+        <v>4841637.139274348</v>
       </c>
       <c r="H93">
-        <v>1429.706257453427</v>
+        <v>3986237.392774547</v>
       </c>
       <c r="I93">
-        <v>164.8747566177677</v>
+        <v>1116691.455088094</v>
       </c>
       <c r="J93">
-        <v>132.9729883393136</v>
+        <v>4841363.5483589</v>
       </c>
       <c r="K93">
-        <v>1029.678655305849</v>
+        <v>3985262.723659228</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3709,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>52.9731737826462</v>
+        <v>1116403.939863393</v>
       </c>
       <c r="G94">
-        <v>403.8551236980292</v>
+        <v>4841653.652095871</v>
       </c>
       <c r="H94">
-        <v>1436.966458060831</v>
+        <v>3986246.899097972</v>
       </c>
       <c r="I94">
-        <v>202.3478712346883</v>
+        <v>1116766.091524546</v>
       </c>
       <c r="J94">
-        <v>90.19751774736891</v>
+        <v>4841314.896880862</v>
       </c>
       <c r="K94">
-        <v>716.8262117092762</v>
+        <v>3984990.870703594</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3744,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>52.16474725543283</v>
+        <v>1116403.276048718</v>
       </c>
       <c r="G95">
-        <v>419.4214823651379</v>
+        <v>4841670.164917396</v>
       </c>
       <c r="H95">
-        <v>1444.003647746919</v>
+        <v>3986256.113416527</v>
       </c>
       <c r="I95">
-        <v>240.743726824418</v>
+        <v>1116842.565814581</v>
       </c>
       <c r="J95">
-        <v>47.422047155424</v>
+        <v>4841266.245402825</v>
       </c>
       <c r="K95">
-        <v>386.5404732247456</v>
+        <v>3984703.869096131</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3779,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>51.39222783282575</v>
+        <v>1116402.641718062</v>
       </c>
       <c r="G96">
-        <v>434.9878410322468</v>
+        <v>4841686.677738922</v>
       </c>
       <c r="H96">
-        <v>1450.831119614796</v>
+        <v>3986265.053135864</v>
       </c>
       <c r="I96">
-        <v>280.0850450345051</v>
+        <v>1116920.923213654</v>
       </c>
       <c r="J96">
-        <v>4.646576563479085</v>
+        <v>4841217.593924787</v>
       </c>
       <c r="K96">
-        <v>38.82143985225893</v>
+        <v>3984401.71883684</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3814,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>50.65303448419314</v>
+        <v>1116402.03475209</v>
       </c>
       <c r="G97">
-        <v>450.5541996993556</v>
+        <v>4841703.190560446</v>
       </c>
       <c r="H97">
-        <v>1457.461012533938</v>
+        <v>3986273.734150311</v>
       </c>
       <c r="I97">
-        <v>320.3951070121662</v>
+        <v>1117001.210091591</v>
       </c>
       <c r="J97">
-        <v>-38.12889402846563</v>
+        <v>4841168.94244675</v>
       </c>
       <c r="K97">
-        <v>-326.3308884081831</v>
+        <v>3984084.41992572</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3849,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>49.94483860004453</v>
+        <v>1116401.453238737</v>
       </c>
       <c r="G98">
-        <v>466.1205583664644</v>
+        <v>4841719.703381971</v>
       </c>
       <c r="H98">
-        <v>1463.904441018629</v>
+        <v>3986282.171012935</v>
       </c>
       <c r="I98">
-        <v>361.6977671814503</v>
+        <v>1117083.473960035</v>
       </c>
       <c r="J98">
-        <v>-80.90436462041055</v>
+        <v>4841120.290968712</v>
       </c>
       <c r="K98">
-        <v>-708.9165115565825</v>
+        <v>3983751.972362773</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3884,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>49.26553312169105</v>
+        <v>1116400.895447856</v>
       </c>
       <c r="G99">
-        <v>481.6869170335732</v>
+        <v>4841736.216203496</v>
       </c>
       <c r="H99">
-        <v>1470.17160733714</v>
+        <v>3986290.377082328</v>
       </c>
       <c r="I99">
-        <v>404.0174673596528</v>
+        <v>1117167.763500558</v>
       </c>
       <c r="J99">
-        <v>-123.6798352123555</v>
+        <v>4841071.639490673</v>
       </c>
       <c r="K99">
-        <v>-1108.935429592939</v>
+        <v>3983404.376147996</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3919,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>48.61320616222451</v>
+        <v>1116400.359809558</v>
       </c>
       <c r="G100">
-        <v>497.253275700682</v>
+        <v>4841752.72902502</v>
       </c>
       <c r="H100">
-        <v>1476.271898691446</v>
+        <v>3986298.364649855</v>
       </c>
       <c r="I100">
-        <v>447.3792512213332</v>
+        <v>1117254.128593471</v>
       </c>
       <c r="J100">
-        <v>-166.4553058043004</v>
+        <v>4841022.988012636</v>
       </c>
       <c r="K100">
-        <v>-1526.387642517251</v>
+        <v>3983041.631281391</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3954,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>47.98611836661279</v>
+        <v>1116399.844895627</v>
       </c>
       <c r="G101">
-        <v>512.8196343677907</v>
+        <v>4841769.241846546</v>
       </c>
       <c r="H101">
-        <v>1482.213971791469</v>
+        <v>3986306.145050392</v>
       </c>
       <c r="I101">
-        <v>491.8087791184975</v>
+        <v>1117342.620347343</v>
       </c>
       <c r="J101">
-        <v>-209.2307763962449</v>
+        <v>4840974.336534599</v>
       </c>
       <c r="K101">
-        <v>-1961.273150329517</v>
+        <v>3982663.737762957</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3989,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>47.38268340039333</v>
+        <v>1116399.349403492</v>
       </c>
       <c r="G102">
-        <v>528.3859930348997</v>
+        <v>4841785.75466807</v>
       </c>
       <c r="H102">
-        <v>1488.005826736469</v>
+        <v>3986313.728759069</v>
       </c>
       <c r="I102">
-        <v>537.3323432657138</v>
+        <v>1117433.291129243</v>
       </c>
       <c r="J102">
-        <v>-252.0062469881898</v>
+        <v>4840925.685056562</v>
       </c>
       <c r="K102">
-        <v>-2413.591953029742</v>
+        <v>3982270.695592696</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4024,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>46.80145106862769</v>
+        <v>1116398.87214237</v>
       </c>
       <c r="G103">
-        <v>543.9523517020084</v>
+        <v>4841802.267489595</v>
       </c>
       <c r="H103">
-        <v>1493.654871785926</v>
+        <v>3986321.125476073</v>
       </c>
       <c r="I103">
-        <v>583.9768832991439</v>
+        <v>1117526.194595731</v>
       </c>
       <c r="J103">
-        <v>-294.7817175801347</v>
+        <v>4840877.033578523</v>
       </c>
       <c r="K103">
-        <v>-2883.344050617924</v>
+        <v>3981862.504770605</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4059,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>46.24109265616334</v>
+        <v>1116398.412021228</v>
       </c>
       <c r="G104">
-        <v>559.5187103691171</v>
+        <v>4841818.780311121</v>
       </c>
       <c r="H104">
-        <v>1499.167980335675</v>
+        <v>3986328.344201256</v>
       </c>
       <c r="I104">
-        <v>631.7700022187073</v>
+        <v>1117621.385724613</v>
       </c>
       <c r="J104">
-        <v>-337.5571881720796</v>
+        <v>4840828.382100486</v>
       </c>
       <c r="K104">
-        <v>-3370.529443094062</v>
+        <v>3981439.165296686</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4094,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>45.70038815189277</v>
+        <v>1116397.96803829</v>
       </c>
       <c r="G105">
-        <v>575.0850690362261</v>
+        <v>4841835.293132644</v>
       </c>
       <c r="H105">
-        <v>1504.551541198532</v>
+        <v>3986335.393299968</v>
       </c>
       <c r="I105">
-        <v>680.7399827228022</v>
+        <v>1117718.920847468</v>
       </c>
       <c r="J105">
-        <v>-380.3326587640245</v>
+        <v>4840779.730622449</v>
       </c>
       <c r="K105">
-        <v>-3875.148130458155</v>
+        <v>3981000.677170939</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4129,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>45.17821507743903</v>
+        <v>1116397.539271868</v>
       </c>
       <c r="G106">
-        <v>590.6514277033348</v>
+        <v>4841851.805954169</v>
       </c>
       <c r="H106">
-        <v>1509.811503111961</v>
+        <v>3986342.280561334</v>
       </c>
       <c r="I106">
-        <v>730.9158039452534</v>
+        <v>1117818.857682994</v>
       </c>
       <c r="J106">
-        <v>-423.108129355969</v>
+        <v>4840731.079144412</v>
       </c>
       <c r="K106">
-        <v>-4397.200112710202</v>
+        <v>3980547.040393363</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4164,3741 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>44.67353868749402</v>
+        <v>1116397.124872312</v>
       </c>
       <c r="G107">
-        <v>606.2177863704436</v>
+        <v>4841868.318775695</v>
       </c>
       <c r="H107">
-        <v>1514.953414250339</v>
+        <v>3986349.013249995</v>
       </c>
       <c r="I107">
-        <v>782.3271586043992</v>
+        <v>1117921.255371154</v>
       </c>
       <c r="J107">
-        <v>-465.883599947914</v>
+        <v>4840682.427666373</v>
       </c>
       <c r="K107">
-        <v>-4936.685389850209</v>
+        <v>3980078.254963959</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G108">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H108">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I108">
+        <v>1114862.506097602</v>
+      </c>
+      <c r="J108">
+        <v>4843231.194292723</v>
+      </c>
+      <c r="K108">
+        <v>3984366.652457042</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G109">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H109">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I109">
+        <v>1114892.120124578</v>
+      </c>
+      <c r="J109">
+        <v>4843182.542624933</v>
+      </c>
+      <c r="K109">
+        <v>3984670.44816929</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G110">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H110">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I110">
+        <v>1114922.463369723</v>
+      </c>
+      <c r="J110">
+        <v>4843133.890957141</v>
+      </c>
+      <c r="K110">
+        <v>3984959.095234775</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G111">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H111">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I111">
+        <v>1114953.553789366</v>
+      </c>
+      <c r="J111">
+        <v>4843085.239289351</v>
+      </c>
+      <c r="K111">
+        <v>3985232.593653499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G112">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H112">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I112">
+        <v>1114985.409781989</v>
+      </c>
+      <c r="J112">
+        <v>4843036.58762156</v>
+      </c>
+      <c r="K112">
+        <v>3985490.94342546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G113">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H113">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I113">
+        <v>1115018.050199124</v>
+      </c>
+      <c r="J113">
+        <v>4842987.935953769</v>
+      </c>
+      <c r="K113">
+        <v>3985734.14455066</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G114">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H114">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I114">
+        <v>1115051.494356502</v>
+      </c>
+      <c r="J114">
+        <v>4842939.284285977</v>
+      </c>
+      <c r="K114">
+        <v>3985962.197029096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G115">
+        <v>4841124.121454427</v>
+      </c>
+      <c r="H115">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I115">
+        <v>1115085.762045487</v>
+      </c>
+      <c r="J115">
+        <v>4842890.632618187</v>
+      </c>
+      <c r="K115">
+        <v>3986175.100860771</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.308619004</v>
+      </c>
+      <c r="G116">
+        <v>4841140.634272131</v>
+      </c>
+      <c r="H116">
+        <v>3985223.290982419</v>
+      </c>
+      <c r="I116">
+        <v>1115120.873544788</v>
+      </c>
+      <c r="J116">
+        <v>4842841.980950397</v>
+      </c>
+      <c r="K116">
+        <v>3986372.856045683</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116528.628107344</v>
+      </c>
+      <c r="G117">
+        <v>4841157.147089834</v>
+      </c>
+      <c r="H117">
+        <v>3985422.545137334</v>
+      </c>
+      <c r="I117">
+        <v>1115156.849632457</v>
+      </c>
+      <c r="J117">
+        <v>4842793.329282606</v>
+      </c>
+      <c r="K117">
+        <v>3986555.462583833</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.030748821</v>
+      </c>
+      <c r="G118">
+        <v>4841173.659907538</v>
+      </c>
+      <c r="H118">
+        <v>3985541.231102245</v>
+      </c>
+      <c r="I118">
+        <v>1115193.711598188</v>
+      </c>
+      <c r="J118">
+        <v>4842744.677614815</v>
+      </c>
+      <c r="K118">
+        <v>3986722.920475222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116481.977998114</v>
+      </c>
+      <c r="G119">
+        <v>4841190.172725242</v>
+      </c>
+      <c r="H119">
+        <v>3985626.04793969</v>
+      </c>
+      <c r="I119">
+        <v>1115231.481255912</v>
+      </c>
+      <c r="J119">
+        <v>4842696.025947024</v>
+      </c>
+      <c r="K119">
+        <v>3986875.229719847</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>7</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.388083051</v>
+      </c>
+      <c r="G120">
+        <v>4841206.685542944</v>
+      </c>
+      <c r="H120">
+        <v>3985692.094765567</v>
+      </c>
+      <c r="I120">
+        <v>1115270.180956711</v>
+      </c>
+      <c r="J120">
+        <v>4842647.374279234</v>
+      </c>
+      <c r="K120">
+        <v>3987012.390317711</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116459.995629389</v>
+      </c>
+      <c r="G121">
+        <v>4841223.198360648</v>
+      </c>
+      <c r="H121">
+        <v>3985746.19223902</v>
+      </c>
+      <c r="I121">
+        <v>1115309.833602038</v>
+      </c>
+      <c r="J121">
+        <v>4842598.722611443</v>
+      </c>
+      <c r="K121">
+        <v>3987134.402268812</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116452.652042242</v>
+      </c>
+      <c r="G122">
+        <v>4841239.71117835</v>
+      </c>
+      <c r="H122">
+        <v>3985792.008850109</v>
+      </c>
+      <c r="I122">
+        <v>1115350.462657277</v>
+      </c>
+      <c r="J122">
+        <v>4842550.070943652</v>
+      </c>
+      <c r="K122">
+        <v>3987241.265573151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>17</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116446.710545537</v>
+      </c>
+      <c r="G123">
+        <v>4841256.223996054</v>
+      </c>
+      <c r="H123">
+        <v>3985831.746415782</v>
+      </c>
+      <c r="I123">
+        <v>1115392.092165623</v>
+      </c>
+      <c r="J123">
+        <v>4842501.41927586</v>
+      </c>
+      <c r="K123">
+        <v>3987332.980230727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116441.776986197</v>
+      </c>
+      <c r="G124">
+        <v>4841272.736813758</v>
+      </c>
+      <c r="H124">
+        <v>3985866.830754091</v>
+      </c>
+      <c r="I124">
+        <v>1115434.746762314</v>
+      </c>
+      <c r="J124">
+        <v>4842452.76760807</v>
+      </c>
+      <c r="K124">
+        <v>3987409.546241541</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>17</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116437.596165861</v>
+      </c>
+      <c r="G125">
+        <v>4841289.249631461</v>
+      </c>
+      <c r="H125">
+        <v>3985898.23829686</v>
+      </c>
+      <c r="I125">
+        <v>1115478.451689207</v>
+      </c>
+      <c r="J125">
+        <v>4842404.115940279</v>
+      </c>
+      <c r="K125">
+        <v>3987470.963605594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116433.994797024</v>
+      </c>
+      <c r="G126">
+        <v>4841305.762449164</v>
+      </c>
+      <c r="H126">
+        <v>3985926.667111291</v>
+      </c>
+      <c r="I126">
+        <v>1115523.232809716</v>
+      </c>
+      <c r="J126">
+        <v>4842355.464272488</v>
+      </c>
+      <c r="K126">
+        <v>3987517.232322884</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116430.850615941</v>
+      </c>
+      <c r="G127">
+        <v>4841322.275266868</v>
+      </c>
+      <c r="H127">
+        <v>3985952.633587211</v>
+      </c>
+      <c r="I127">
+        <v>1115569.116624121</v>
+      </c>
+      <c r="J127">
+        <v>4842306.812604697</v>
+      </c>
+      <c r="K127">
+        <v>3987548.352393412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.074601215</v>
+      </c>
+      <c r="G128">
+        <v>4841338.788084571</v>
+      </c>
+      <c r="H128">
+        <v>3985976.530478889</v>
+      </c>
+      <c r="I128">
+        <v>1115616.130285242</v>
+      </c>
+      <c r="J128">
+        <v>4842258.160936907</v>
+      </c>
+      <c r="K128">
+        <v>3987564.323817177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116425.600209028</v>
+      </c>
+      <c r="G129">
+        <v>4841355.300902274</v>
+      </c>
+      <c r="H129">
+        <v>3985998.663472741</v>
+      </c>
+      <c r="I129">
+        <v>1115664.301614517</v>
+      </c>
+      <c r="J129">
+        <v>4842209.509269116</v>
+      </c>
+      <c r="K129">
+        <v>3987565.146594181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.376576871</v>
+      </c>
+      <c r="G130">
+        <v>4841371.813719979</v>
+      </c>
+      <c r="H130">
+        <v>3986019.275161399</v>
+      </c>
+      <c r="I130">
+        <v>1115713.659118459</v>
+      </c>
+      <c r="J130">
+        <v>4842160.857601325</v>
+      </c>
+      <c r="K130">
+        <v>3987550.820724421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.36407762</v>
+      </c>
+      <c r="G131">
+        <v>4841388.326537681</v>
+      </c>
+      <c r="H131">
+        <v>3986038.561295029</v>
+      </c>
+      <c r="I131">
+        <v>1115764.232005527</v>
+      </c>
+      <c r="J131">
+        <v>4842112.205933535</v>
+      </c>
+      <c r="K131">
+        <v>3987521.3462079</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116419.531321274</v>
+      </c>
+      <c r="G132">
+        <v>4841404.839355385</v>
+      </c>
+      <c r="H132">
+        <v>3986056.682115301</v>
+      </c>
+      <c r="I132">
+        <v>1115816.050203413</v>
+      </c>
+      <c r="J132">
+        <v>4842063.554265744</v>
+      </c>
+      <c r="K132">
+        <v>3987476.723044617</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116417.853078946</v>
+      </c>
+      <c r="G133">
+        <v>4841421.352173087</v>
+      </c>
+      <c r="H133">
+        <v>3986073.770456079</v>
+      </c>
+      <c r="I133">
+        <v>1115869.14437675</v>
+      </c>
+      <c r="J133">
+        <v>4842014.902597953</v>
+      </c>
+      <c r="K133">
+        <v>3987416.951234571</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.308811888</v>
+      </c>
+      <c r="G134">
+        <v>4841437.864990791</v>
+      </c>
+      <c r="H134">
+        <v>3986089.937658165</v>
+      </c>
+      <c r="I134">
+        <v>1115923.54594526</v>
+      </c>
+      <c r="J134">
+        <v>4841966.250930161</v>
+      </c>
+      <c r="K134">
+        <v>3987342.030777763</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" t="s">
+        <v>21</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116414.881607817</v>
+      </c>
+      <c r="G135">
+        <v>4841454.377808494</v>
+      </c>
+      <c r="H135">
+        <v>3986105.277969852</v>
+      </c>
+      <c r="I135">
+        <v>1115979.287102345</v>
+      </c>
+      <c r="J135">
+        <v>4841917.599262371</v>
+      </c>
+      <c r="K135">
+        <v>3987251.961674193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>21</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116413.55739773</v>
+      </c>
+      <c r="G136">
+        <v>4841470.890626198</v>
+      </c>
+      <c r="H136">
+        <v>3986119.871875882</v>
+      </c>
+      <c r="I136">
+        <v>1116036.400834143</v>
+      </c>
+      <c r="J136">
+        <v>4841868.94759458</v>
+      </c>
+      <c r="K136">
+        <v>3987146.743923861</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.324369857</v>
+      </c>
+      <c r="G137">
+        <v>4841487.403443902</v>
+      </c>
+      <c r="H137">
+        <v>3986133.788653446</v>
+      </c>
+      <c r="I137">
+        <v>1116094.920939043</v>
+      </c>
+      <c r="J137">
+        <v>4841820.295926789</v>
+      </c>
+      <c r="K137">
+        <v>3987026.377526766</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.172524697</v>
+      </c>
+      <c r="G138">
+        <v>4841503.916261605</v>
+      </c>
+      <c r="H138">
+        <v>3986147.08836109</v>
+      </c>
+      <c r="I138">
+        <v>1116154.882047689</v>
+      </c>
+      <c r="J138">
+        <v>4841771.644258998</v>
+      </c>
+      <c r="K138">
+        <v>3986890.862482909</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.093332713</v>
+      </c>
+      <c r="G139">
+        <v>4841520.429079308</v>
+      </c>
+      <c r="H139">
+        <v>3986159.823405095</v>
+      </c>
+      <c r="I139">
+        <v>1116216.319643472</v>
+      </c>
+      <c r="J139">
+        <v>4841722.992591208</v>
+      </c>
+      <c r="K139">
+        <v>3986740.19879229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.079467827</v>
+      </c>
+      <c r="G140">
+        <v>4841536.941897011</v>
+      </c>
+      <c r="H140">
+        <v>3986172.039786695</v>
+      </c>
+      <c r="I140">
+        <v>1116279.270083529</v>
+      </c>
+      <c r="J140">
+        <v>4841674.340923417</v>
+      </c>
+      <c r="K140">
+        <v>3986574.386454909</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.124597659</v>
+      </c>
+      <c r="G141">
+        <v>4841553.454714715</v>
+      </c>
+      <c r="H141">
+        <v>3986183.7781051</v>
+      </c>
+      <c r="I141">
+        <v>1116343.770620259</v>
+      </c>
+      <c r="J141">
+        <v>4841625.689255626</v>
+      </c>
+      <c r="K141">
+        <v>3986393.425470765</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116407.223216765</v>
+      </c>
+      <c r="G142">
+        <v>4841569.967532418</v>
+      </c>
+      <c r="H142">
+        <v>3986195.074371562</v>
+      </c>
+      <c r="I142">
+        <v>1116409.859423368</v>
+      </c>
+      <c r="J142">
+        <v>4841577.037587835</v>
+      </c>
+      <c r="K142">
+        <v>3986197.315839859</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.370512842</v>
+      </c>
+      <c r="G143">
+        <v>4841586.480350122</v>
+      </c>
+      <c r="H143">
+        <v>3986205.96067564</v>
+      </c>
+      <c r="I143">
+        <v>1116477.575602451</v>
+      </c>
+      <c r="J143">
+        <v>4841528.385920045</v>
+      </c>
+      <c r="K143">
+        <v>3985986.057562191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116405.562258459</v>
+      </c>
+      <c r="G144">
+        <v>4841602.993167824</v>
+      </c>
+      <c r="H144">
+        <v>3986216.465734753</v>
+      </c>
+      <c r="I144">
+        <v>1116546.959230148</v>
+      </c>
+      <c r="J144">
+        <v>4841479.734252254</v>
+      </c>
+      <c r="K144">
+        <v>3985759.650637761</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116404.794722761</v>
+      </c>
+      <c r="G145">
+        <v>4841619.505985528</v>
+      </c>
+      <c r="H145">
+        <v>3986226.61535071</v>
+      </c>
+      <c r="I145">
+        <v>1116618.051365844</v>
+      </c>
+      <c r="J145">
+        <v>4841431.082584462</v>
+      </c>
+      <c r="K145">
+        <v>3985518.095066568</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.064598931</v>
+      </c>
+      <c r="G146">
+        <v>4841636.018803231</v>
+      </c>
+      <c r="H146">
+        <v>3986236.432791519</v>
+      </c>
+      <c r="I146">
+        <v>1116690.894079978</v>
+      </c>
+      <c r="J146">
+        <v>4841382.430916672</v>
+      </c>
+      <c r="K146">
+        <v>3985261.390848613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.368944189</v>
+      </c>
+      <c r="G147">
+        <v>4841652.531620935</v>
+      </c>
+      <c r="H147">
+        <v>3986245.939112655</v>
+      </c>
+      <c r="I147">
+        <v>1116765.530478934</v>
+      </c>
+      <c r="J147">
+        <v>4841333.779248881</v>
+      </c>
+      <c r="K147">
+        <v>3984989.537983896</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>7</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116402.705129854</v>
+      </c>
+      <c r="G148">
+        <v>4841669.044438639</v>
+      </c>
+      <c r="H148">
+        <v>3986255.15342899</v>
+      </c>
+      <c r="I148">
+        <v>1116842.00473055</v>
+      </c>
+      <c r="J148">
+        <v>4841285.127581091</v>
+      </c>
+      <c r="K148">
+        <v>3984702.536472417</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.070799522</v>
+      </c>
+      <c r="G149">
+        <v>4841685.557256342</v>
+      </c>
+      <c r="H149">
+        <v>3986264.093146174</v>
+      </c>
+      <c r="I149">
+        <v>1116920.362090257</v>
+      </c>
+      <c r="J149">
+        <v>4841236.475913299</v>
+      </c>
+      <c r="K149">
+        <v>3984400.386314176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>17</v>
+      </c>
+      <c r="D150" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.463833861</v>
+      </c>
+      <c r="G150">
+        <v>4841702.070074045</v>
+      </c>
+      <c r="H150">
+        <v>3986272.774158531</v>
+      </c>
+      <c r="I150">
+        <v>1117000.648927859</v>
+      </c>
+      <c r="J150">
+        <v>4841187.824245509</v>
+      </c>
+      <c r="K150">
+        <v>3984083.087509172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" t="s">
+        <v>21</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116400.882320805</v>
+      </c>
+      <c r="G151">
+        <v>4841718.582891748</v>
+      </c>
+      <c r="H151">
+        <v>3986281.211019123</v>
+      </c>
+      <c r="I151">
+        <v>1117082.912754975</v>
+      </c>
+      <c r="J151">
+        <v>4841139.172577718</v>
+      </c>
+      <c r="K151">
+        <v>3983750.640057406</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.324530209</v>
+      </c>
+      <c r="G152">
+        <v>4841735.095709451</v>
+      </c>
+      <c r="H152">
+        <v>3986289.41708654</v>
+      </c>
+      <c r="I152">
+        <v>1117167.202253152</v>
+      </c>
+      <c r="J152">
+        <v>4841090.520909927</v>
+      </c>
+      <c r="K152">
+        <v>3983403.043958878</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" t="s">
+        <v>21</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116399.788892186</v>
+      </c>
+      <c r="G153">
+        <v>4841751.608527155</v>
+      </c>
+      <c r="H153">
+        <v>3986297.404652143</v>
+      </c>
+      <c r="I153">
+        <v>1117253.567302677</v>
+      </c>
+      <c r="J153">
+        <v>4841041.869242136</v>
+      </c>
+      <c r="K153">
+        <v>3983040.299213587</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" t="s">
+        <v>21</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.273978518</v>
+      </c>
+      <c r="G154">
+        <v>4841768.121344859</v>
+      </c>
+      <c r="H154">
+        <v>3986305.185050806</v>
+      </c>
+      <c r="I154">
+        <v>1117342.059012092</v>
+      </c>
+      <c r="J154">
+        <v>4840993.217574346</v>
+      </c>
+      <c r="K154">
+        <v>3982662.405821534</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116398.778486636</v>
+      </c>
+      <c r="G155">
+        <v>4841784.634162561</v>
+      </c>
+      <c r="H155">
+        <v>3986312.768757657</v>
+      </c>
+      <c r="I155">
+        <v>1117432.72974844</v>
+      </c>
+      <c r="J155">
+        <v>4840944.565906554</v>
+      </c>
+      <c r="K155">
+        <v>3982269.36378272</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156" t="s">
+        <v>21</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.301225759</v>
+      </c>
+      <c r="G156">
+        <v>4841801.146980265</v>
+      </c>
+      <c r="H156">
+        <v>3986320.16547288</v>
+      </c>
+      <c r="I156">
+        <v>1117525.633168256</v>
+      </c>
+      <c r="J156">
+        <v>4840895.914238763</v>
+      </c>
+      <c r="K156">
+        <v>3981861.173097142</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116397.841104851</v>
+      </c>
+      <c r="G157">
+        <v>4841817.659797969</v>
+      </c>
+      <c r="H157">
+        <v>3986327.384196324</v>
+      </c>
+      <c r="I157">
+        <v>1117620.824249315</v>
+      </c>
+      <c r="J157">
+        <v>4840847.262570973</v>
+      </c>
+      <c r="K157">
+        <v>3981437.833764803</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" t="s">
+        <v>21</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.39712214</v>
+      </c>
+      <c r="G158">
+        <v>4841834.172615672</v>
+      </c>
+      <c r="H158">
+        <v>3986334.433293338</v>
+      </c>
+      <c r="I158">
+        <v>1117718.35932317</v>
+      </c>
+      <c r="J158">
+        <v>4840798.610903182</v>
+      </c>
+      <c r="K158">
+        <v>3980999.345785701</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116396.968355937</v>
+      </c>
+      <c r="G159">
+        <v>4841850.685433376</v>
+      </c>
+      <c r="H159">
+        <v>3986341.320553046</v>
+      </c>
+      <c r="I159">
+        <v>1117818.296108489</v>
+      </c>
+      <c r="J159">
+        <v>4840749.959235392</v>
+      </c>
+      <c r="K159">
+        <v>3980545.709159837</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116396.553956594</v>
+      </c>
+      <c r="G160">
+        <v>4841867.198251079</v>
+      </c>
+      <c r="H160">
+        <v>3986348.053240086</v>
+      </c>
+      <c r="I160">
+        <v>1117920.693745206</v>
+      </c>
+      <c r="J160">
+        <v>4840701.3075676</v>
+      </c>
+      <c r="K160">
+        <v>3980076.923887211</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G161">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H161">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I161">
+        <v>1114860.737870807</v>
+      </c>
+      <c r="J161">
+        <v>4843227.643411187</v>
+      </c>
+      <c r="K161">
+        <v>3984365.708706305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G162">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H162">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I162">
+        <v>1114890.351850814</v>
+      </c>
+      <c r="J162">
+        <v>4843178.991779067</v>
+      </c>
+      <c r="K162">
+        <v>3984669.504346595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>18</v>
+      </c>
+      <c r="D163" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G163">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H163">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I163">
+        <v>1114920.695047833</v>
+      </c>
+      <c r="J163">
+        <v>4843130.340146945</v>
+      </c>
+      <c r="K163">
+        <v>3984958.151343711</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" t="s">
+        <v>18</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G164">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H164">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I164">
+        <v>1114951.785418165</v>
+      </c>
+      <c r="J164">
+        <v>4843081.688514824</v>
+      </c>
+      <c r="K164">
+        <v>3985231.649697653</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G165">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H165">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I165">
+        <v>1114983.641360263</v>
+      </c>
+      <c r="J165">
+        <v>4843033.036882703</v>
+      </c>
+      <c r="K165">
+        <v>3985489.999408421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G166">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H166">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I166">
+        <v>1115016.281725629</v>
+      </c>
+      <c r="J166">
+        <v>4842984.385250582</v>
+      </c>
+      <c r="K166">
+        <v>3985733.200476015</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G167">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H167">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I167">
+        <v>1115049.725829962</v>
+      </c>
+      <c r="J167">
+        <v>4842935.733618461</v>
+      </c>
+      <c r="K167">
+        <v>3985961.252900434</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G168">
+        <v>4841120.091543814</v>
+      </c>
+      <c r="H168">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I168">
+        <v>1115083.993464597</v>
+      </c>
+      <c r="J168">
+        <v>4842887.08198634</v>
+      </c>
+      <c r="K168">
+        <v>3986174.15668168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" t="s">
+        <v>22</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.27736563</v>
+      </c>
+      <c r="G169">
+        <v>4841136.604347772</v>
+      </c>
+      <c r="H169">
+        <v>3985227.997001398</v>
+      </c>
+      <c r="I169">
+        <v>1115119.10490821</v>
+      </c>
+      <c r="J169">
+        <v>4842838.430354218</v>
+      </c>
+      <c r="K169">
+        <v>3986371.91181975</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>22</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116530.596768136</v>
+      </c>
+      <c r="G170">
+        <v>4841153.117151729</v>
+      </c>
+      <c r="H170">
+        <v>3985427.251391605</v>
+      </c>
+      <c r="I170">
+        <v>1115155.080938819</v>
+      </c>
+      <c r="J170">
+        <v>4842789.778722097</v>
+      </c>
+      <c r="K170">
+        <v>3986554.518314648</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116501.999359191</v>
+      </c>
+      <c r="G171">
+        <v>4841169.629955687</v>
+      </c>
+      <c r="H171">
+        <v>3985545.93749667</v>
+      </c>
+      <c r="I171">
+        <v>1115191.942846085</v>
+      </c>
+      <c r="J171">
+        <v>4842741.127089975</v>
+      </c>
+      <c r="K171">
+        <v>3986721.976166371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.946576653</v>
+      </c>
+      <c r="G172">
+        <v>4841186.142759644</v>
+      </c>
+      <c r="H172">
+        <v>3985630.754434272</v>
+      </c>
+      <c r="I172">
+        <v>1115229.712443905</v>
+      </c>
+      <c r="J172">
+        <v>4842692.475457855</v>
+      </c>
+      <c r="K172">
+        <v>3986874.28537492</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116471.356639392</v>
+      </c>
+      <c r="G173">
+        <v>4841202.655563601</v>
+      </c>
+      <c r="H173">
+        <v>3985696.801338141</v>
+      </c>
+      <c r="I173">
+        <v>1115268.412083323</v>
+      </c>
+      <c r="J173">
+        <v>4842643.823825734</v>
+      </c>
+      <c r="K173">
+        <v>3987011.445940296</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" t="s">
+        <v>22</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.964169169</v>
+      </c>
+      <c r="G174">
+        <v>4841219.16836756</v>
+      </c>
+      <c r="H174">
+        <v>3985750.898875476</v>
+      </c>
+      <c r="I174">
+        <v>1115308.06466576</v>
+      </c>
+      <c r="J174">
+        <v>4842595.172193613</v>
+      </c>
+      <c r="K174">
+        <v>3987133.457862497</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116454.620569074</v>
+      </c>
+      <c r="G175">
+        <v>4841235.681171517</v>
+      </c>
+      <c r="H175">
+        <v>3985796.715540669</v>
+      </c>
+      <c r="I175">
+        <v>1115348.693656559</v>
+      </c>
+      <c r="J175">
+        <v>4842546.520561491</v>
+      </c>
+      <c r="K175">
+        <v>3987240.321141524</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116448.679061893</v>
+      </c>
+      <c r="G176">
+        <v>4841252.193975475</v>
+      </c>
+      <c r="H176">
+        <v>3985836.453153266</v>
+      </c>
+      <c r="I176">
+        <v>1115390.323098879</v>
+      </c>
+      <c r="J176">
+        <v>4842497.86892937</v>
+      </c>
+      <c r="K176">
+        <v>3987332.035777376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116443.745493854</v>
+      </c>
+      <c r="G177">
+        <v>4841268.706779432</v>
+      </c>
+      <c r="H177">
+        <v>3985871.537533005</v>
+      </c>
+      <c r="I177">
+        <v>1115432.977627917</v>
+      </c>
+      <c r="J177">
+        <v>4842449.217297249</v>
+      </c>
+      <c r="K177">
+        <v>3987408.601770055</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>14</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116439.564666147</v>
+      </c>
+      <c r="G178">
+        <v>4841285.219583389</v>
+      </c>
+      <c r="H178">
+        <v>3985902.945112863</v>
+      </c>
+      <c r="I178">
+        <v>1115476.682485492</v>
+      </c>
+      <c r="J178">
+        <v>4842400.565665128</v>
+      </c>
+      <c r="K178">
+        <v>3987470.01911956</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.96329096</v>
+      </c>
+      <c r="G179">
+        <v>4841301.732387347</v>
+      </c>
+      <c r="H179">
+        <v>3985931.373960864</v>
+      </c>
+      <c r="I179">
+        <v>1115521.463534976</v>
+      </c>
+      <c r="J179">
+        <v>4842351.914033006</v>
+      </c>
+      <c r="K179">
+        <v>3987516.28782589</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.819104332</v>
+      </c>
+      <c r="G180">
+        <v>4841318.245191305</v>
+      </c>
+      <c r="H180">
+        <v>3985957.340467447</v>
+      </c>
+      <c r="I180">
+        <v>1115567.347276607</v>
+      </c>
+      <c r="J180">
+        <v>4842303.262400885</v>
+      </c>
+      <c r="K180">
+        <v>3987547.407889047</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" t="s">
+        <v>18</v>
+      </c>
+      <c r="D181" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.043084712</v>
+      </c>
+      <c r="G181">
+        <v>4841334.757995262</v>
+      </c>
+      <c r="H181">
+        <v>3985981.237387344</v>
+      </c>
+      <c r="I181">
+        <v>1115614.360863162</v>
+      </c>
+      <c r="J181">
+        <v>4842254.610768764</v>
+      </c>
+      <c r="K181">
+        <v>3987563.37930903</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116427.568688163</v>
+      </c>
+      <c r="G182">
+        <v>4841351.27079922</v>
+      </c>
+      <c r="H182">
+        <v>3986003.370407332</v>
+      </c>
+      <c r="I182">
+        <v>1115662.532116035</v>
+      </c>
+      <c r="J182">
+        <v>4842205.959136643</v>
+      </c>
+      <c r="K182">
+        <v>3987564.202085838</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="D183" t="s">
+        <v>22</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116425.345052084</v>
+      </c>
+      <c r="G183">
+        <v>4841367.783603177</v>
+      </c>
+      <c r="H183">
+        <v>3986023.98212033</v>
+      </c>
+      <c r="I183">
+        <v>1115711.889541693</v>
+      </c>
+      <c r="J183">
+        <v>4842157.307504522</v>
+      </c>
+      <c r="K183">
+        <v>3987549.876219472</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" t="s">
+        <v>22</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116423.332549285</v>
+      </c>
+      <c r="G184">
+        <v>4841384.296407135</v>
+      </c>
+      <c r="H184">
+        <v>3986043.268276734</v>
+      </c>
+      <c r="I184">
+        <v>1115762.462348551</v>
+      </c>
+      <c r="J184">
+        <v>4842108.655872401</v>
+      </c>
+      <c r="K184">
+        <v>3987520.401709932</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="D185" t="s">
+        <v>22</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116421.499789708</v>
+      </c>
+      <c r="G185">
+        <v>4841400.809211093</v>
+      </c>
+      <c r="H185">
+        <v>3986061.389118405</v>
+      </c>
+      <c r="I185">
+        <v>1115814.28046425</v>
+      </c>
+      <c r="J185">
+        <v>4842060.00424028</v>
+      </c>
+      <c r="K185">
+        <v>3987475.778557218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.821544421</v>
+      </c>
+      <c r="G186">
+        <v>4841417.32201505</v>
+      </c>
+      <c r="H186">
+        <v>3986078.477479361</v>
+      </c>
+      <c r="I186">
+        <v>1115867.374553377</v>
+      </c>
+      <c r="J186">
+        <v>4842011.352608158</v>
+      </c>
+      <c r="K186">
+        <v>3987416.00676133</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.27727464</v>
+      </c>
+      <c r="G187">
+        <v>4841433.834819008</v>
+      </c>
+      <c r="H187">
+        <v>3986094.644700538</v>
+      </c>
+      <c r="I187">
+        <v>1115921.776035604</v>
+      </c>
+      <c r="J187">
+        <v>4841962.700976036</v>
+      </c>
+      <c r="K187">
+        <v>3987341.086322268</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.850068052</v>
+      </c>
+      <c r="G188">
+        <v>4841450.347622965</v>
+      </c>
+      <c r="H188">
+        <v>3986109.985030341</v>
+      </c>
+      <c r="I188">
+        <v>1115977.517104281</v>
+      </c>
+      <c r="J188">
+        <v>4841914.049343916</v>
+      </c>
+      <c r="K188">
+        <v>3987251.017240033</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116415.52585563</v>
+      </c>
+      <c r="G189">
+        <v>4841466.860426922</v>
+      </c>
+      <c r="H189">
+        <v>3986124.578953604</v>
+      </c>
+      <c r="I189">
+        <v>1116034.630745494</v>
+      </c>
+      <c r="J189">
+        <v>4841865.397711795</v>
+      </c>
+      <c r="K189">
+        <v>3987145.799514622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.292825583</v>
+      </c>
+      <c r="G190">
+        <v>4841483.37323088</v>
+      </c>
+      <c r="H190">
+        <v>3986138.495747602</v>
+      </c>
+      <c r="I190">
+        <v>1116093.150757578</v>
+      </c>
+      <c r="J190">
+        <v>4841816.746079673</v>
+      </c>
+      <c r="K190">
+        <v>3987025.433146038</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.140978392</v>
+      </c>
+      <c r="G191">
+        <v>4841499.886034838</v>
+      </c>
+      <c r="H191">
+        <v>3986151.795470951</v>
+      </c>
+      <c r="I191">
+        <v>1116153.111771122</v>
+      </c>
+      <c r="J191">
+        <v>4841768.094447552</v>
+      </c>
+      <c r="K191">
+        <v>3986889.91813428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.061784505</v>
+      </c>
+      <c r="G192">
+        <v>4841516.398838795</v>
+      </c>
+      <c r="H192">
+        <v>3986164.530529995</v>
+      </c>
+      <c r="I192">
+        <v>1116214.549269462</v>
+      </c>
+      <c r="J192">
+        <v>4841719.442815431</v>
+      </c>
+      <c r="K192">
+        <v>3986739.254479347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.047917832</v>
+      </c>
+      <c r="G193">
+        <v>4841532.911642753</v>
+      </c>
+      <c r="H193">
+        <v>3986176.74692602</v>
+      </c>
+      <c r="I193">
+        <v>1116277.499609677</v>
+      </c>
+      <c r="J193">
+        <v>4841670.791183311</v>
+      </c>
+      <c r="K193">
+        <v>3986573.442181241</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.09304598</v>
+      </c>
+      <c r="G194">
+        <v>4841549.42444671</v>
+      </c>
+      <c r="H194">
+        <v>3986188.485258287</v>
+      </c>
+      <c r="I194">
+        <v>1116342.000044107</v>
+      </c>
+      <c r="J194">
+        <v>4841622.139551189</v>
+      </c>
+      <c r="K194">
+        <v>3986392.48123996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.191663497</v>
+      </c>
+      <c r="G195">
+        <v>4841565.937250668</v>
+      </c>
+      <c r="H195">
+        <v>3986199.781538088</v>
+      </c>
+      <c r="I195">
+        <v>1116408.088742394</v>
+      </c>
+      <c r="J195">
+        <v>4841573.487919068</v>
+      </c>
+      <c r="K195">
+        <v>3986196.371655506</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116408.33895807</v>
+      </c>
+      <c r="G196">
+        <v>4841582.450054626</v>
+      </c>
+      <c r="H196">
+        <v>3986210.667855022</v>
+      </c>
+      <c r="I196">
+        <v>1116475.804814077</v>
+      </c>
+      <c r="J196">
+        <v>4841524.836286946</v>
+      </c>
+      <c r="K196">
+        <v>3985985.113427877</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116407.530702262</v>
+      </c>
+      <c r="G197">
+        <v>4841598.962858583</v>
+      </c>
+      <c r="H197">
+        <v>3986221.17292654</v>
+      </c>
+      <c r="I197">
+        <v>1116545.188331727</v>
+      </c>
+      <c r="J197">
+        <v>4841476.184654825</v>
+      </c>
+      <c r="K197">
+        <v>3985758.706557074</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>22</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.763165211</v>
+      </c>
+      <c r="G198">
+        <v>4841615.475662541</v>
+      </c>
+      <c r="H198">
+        <v>3986231.322554483</v>
+      </c>
+      <c r="I198">
+        <v>1116616.280354668</v>
+      </c>
+      <c r="J198">
+        <v>4841427.533022704</v>
+      </c>
+      <c r="K198">
+        <v>3985517.151043097</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" t="s">
+        <v>18</v>
+      </c>
+      <c r="D199" t="s">
+        <v>22</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.033040093</v>
+      </c>
+      <c r="G199">
+        <v>4841631.988466498</v>
+      </c>
+      <c r="H199">
+        <v>3986241.140006884</v>
+      </c>
+      <c r="I199">
+        <v>1116689.12295327</v>
+      </c>
+      <c r="J199">
+        <v>4841378.881390583</v>
+      </c>
+      <c r="K199">
+        <v>3985260.446885946</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" t="s">
+        <v>22</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116405.337384125</v>
+      </c>
+      <c r="G200">
+        <v>4841648.501270455</v>
+      </c>
+      <c r="H200">
+        <v>3986250.646339246</v>
+      </c>
+      <c r="I200">
+        <v>1116763.759233849</v>
+      </c>
+      <c r="J200">
+        <v>4841330.229758462</v>
+      </c>
+      <c r="K200">
+        <v>3984988.594085621</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201" t="s">
+        <v>18</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116404.673568619</v>
+      </c>
+      <c r="G201">
+        <v>4841665.014074413</v>
+      </c>
+      <c r="H201">
+        <v>3986259.860666462</v>
+      </c>
+      <c r="I201">
+        <v>1116840.233364173</v>
+      </c>
+      <c r="J201">
+        <v>4841281.578126341</v>
+      </c>
+      <c r="K201">
+        <v>3984701.592642122</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" t="s">
+        <v>22</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.039237169</v>
+      </c>
+      <c r="G202">
+        <v>4841681.526878371</v>
+      </c>
+      <c r="H202">
+        <v>3986268.800394203</v>
+      </c>
+      <c r="I202">
+        <v>1116918.590599602</v>
+      </c>
+      <c r="J202">
+        <v>4841232.926494219</v>
+      </c>
+      <c r="K202">
+        <v>3984399.442555449</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" t="s">
+        <v>22</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116403.432270438</v>
+      </c>
+      <c r="G203">
+        <v>4841698.039682328</v>
+      </c>
+      <c r="H203">
+        <v>3986277.481416811</v>
+      </c>
+      <c r="I203">
+        <v>1116998.877309865</v>
+      </c>
+      <c r="J203">
+        <v>4841184.274862099</v>
+      </c>
+      <c r="K203">
+        <v>3984082.143825601</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.850756357</v>
+      </c>
+      <c r="G204">
+        <v>4841714.552486286</v>
+      </c>
+      <c r="H204">
+        <v>3986285.918287366</v>
+      </c>
+      <c r="I204">
+        <v>1117081.141006506</v>
+      </c>
+      <c r="J204">
+        <v>4841135.623229978</v>
+      </c>
+      <c r="K204">
+        <v>3983749.69645258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="s">
+        <v>22</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.292964777</v>
+      </c>
+      <c r="G205">
+        <v>4841731.065290243</v>
+      </c>
+      <c r="H205">
+        <v>3986294.124364472</v>
+      </c>
+      <c r="I205">
+        <v>1117165.430370996</v>
+      </c>
+      <c r="J205">
+        <v>4841086.971597855</v>
+      </c>
+      <c r="K205">
+        <v>3983402.100436385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116401.757325809</v>
+      </c>
+      <c r="G206">
+        <v>4841747.578094201</v>
+      </c>
+      <c r="H206">
+        <v>3986302.111939508</v>
+      </c>
+      <c r="I206">
+        <v>1117251.795283541</v>
+      </c>
+      <c r="J206">
+        <v>4841038.319965734</v>
+      </c>
+      <c r="K206">
+        <v>3983039.355777015</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.242411234</v>
+      </c>
+      <c r="G207">
+        <v>4841764.090898159</v>
+      </c>
+      <c r="H207">
+        <v>3986309.892347359</v>
+      </c>
+      <c r="I207">
+        <v>1117340.286852604</v>
+      </c>
+      <c r="J207">
+        <v>4840989.668333613</v>
+      </c>
+      <c r="K207">
+        <v>3982661.462474472</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116400.746918479</v>
+      </c>
+      <c r="G208">
+        <v>4841780.603702116</v>
+      </c>
+      <c r="H208">
+        <v>3986317.476063165</v>
+      </c>
+      <c r="I208">
+        <v>1117430.957445144</v>
+      </c>
+      <c r="J208">
+        <v>4840941.016701492</v>
+      </c>
+      <c r="K208">
+        <v>3982268.420528754</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.269656759</v>
+      </c>
+      <c r="G209">
+        <v>4841797.116506074</v>
+      </c>
+      <c r="H209">
+        <v>3986324.872787123</v>
+      </c>
+      <c r="I209">
+        <v>1117523.86071761</v>
+      </c>
+      <c r="J209">
+        <v>4840892.365069371</v>
+      </c>
+      <c r="K209">
+        <v>3981860.229939862</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>22</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.809535041</v>
+      </c>
+      <c r="G210">
+        <v>4841813.629310031</v>
+      </c>
+      <c r="H210">
+        <v>3986332.091519091</v>
+      </c>
+      <c r="I210">
+        <v>1117619.051647692</v>
+      </c>
+      <c r="J210">
+        <v>4840843.71343725</v>
+      </c>
+      <c r="K210">
+        <v>3981436.890707796</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>22</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116399.365551547</v>
+      </c>
+      <c r="G211">
+        <v>4841830.142113988</v>
+      </c>
+      <c r="H211">
+        <v>3986339.140624429</v>
+      </c>
+      <c r="I211">
+        <v>1117716.586566851</v>
+      </c>
+      <c r="J211">
+        <v>4840795.061805129</v>
+      </c>
+      <c r="K211">
+        <v>3980998.402832557</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>22</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.936784588</v>
+      </c>
+      <c r="G212">
+        <v>4841846.654917946</v>
+      </c>
+      <c r="H212">
+        <v>3986346.02789227</v>
+      </c>
+      <c r="I212">
+        <v>1117816.523193666</v>
+      </c>
+      <c r="J212">
+        <v>4840746.410173008</v>
+      </c>
+      <c r="K212">
+        <v>3980544.766314143</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" t="s">
+        <v>22</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116398.522384513</v>
+      </c>
+      <c r="G213">
+        <v>4841863.167721904</v>
+      </c>
+      <c r="H213">
+        <v>3986352.760587261</v>
+      </c>
+      <c r="I213">
+        <v>1117918.920667975</v>
+      </c>
+      <c r="J213">
+        <v>4840697.758540886</v>
+      </c>
+      <c r="K213">
+        <v>3980075.981152555</v>
       </c>
     </row>
   </sheetData>
